--- a/teaching/traditional_assets/database/data/portugal/portugal_telecom_services.xlsx
+++ b/teaching/traditional_assets/database/data/portugal/portugal_telecom_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="enxtls_nos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,98 +592,125 @@
           <t>Telecom. Services</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.0136</v>
+      </c>
       <c r="E2">
-        <v>-0.451</v>
+        <v>-0.003</v>
+      </c>
+      <c r="F2">
+        <v>0.0195</v>
+      </c>
+      <c r="G2">
+        <v>0.303023854854967</v>
+      </c>
+      <c r="H2">
+        <v>0.303023854854967</v>
+      </c>
+      <c r="I2">
+        <v>0.1157464441706798</v>
+      </c>
+      <c r="J2">
+        <v>0.1099252118710802</v>
       </c>
       <c r="K2">
-        <v>24.9</v>
+        <v>92.78999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.05195990592451562</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>177.47</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09245636884605365</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.912598340338399</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>167.4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.08721021099244596</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.804073714839961</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>10.06999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.05674198456077081</v>
       </c>
       <c r="U2">
-        <v>25.6</v>
+        <v>236.3</v>
       </c>
       <c r="V2">
-        <v>0.2647362978283351</v>
+        <v>0.1231049752539724</v>
       </c>
       <c r="W2">
-        <v>0.09100877192982455</v>
+        <v>0.03067694344749428</v>
       </c>
       <c r="X2">
-        <v>0.06248718419854367</v>
+        <v>0.05828197329949243</v>
       </c>
       <c r="Y2">
-        <v>0.02852158773128088</v>
+        <v>-0.02760502985199815</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.8744898034136345</v>
       </c>
       <c r="AA2">
-        <v>-0.0241529143863622</v>
+        <v>0.04071850781742569</v>
       </c>
       <c r="AB2">
-        <v>0.0624644828501376</v>
+        <v>0.05006925115962196</v>
       </c>
       <c r="AC2">
-        <v>-0.0866173972364998</v>
+        <v>-0.009350743342196266</v>
       </c>
       <c r="AD2">
-        <v>0.105</v>
+        <v>1794.862</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.105</v>
+        <v>1794.862</v>
       </c>
       <c r="AG2">
-        <v>-25.495</v>
+        <v>1558.562</v>
       </c>
       <c r="AH2">
-        <v>0.001084654718248024</v>
+        <v>0.4832221522834877</v>
       </c>
       <c r="AI2">
-        <v>0.0004723240592879153</v>
+        <v>0.5881203016388027</v>
       </c>
       <c r="AJ2">
-        <v>-0.35805069868689</v>
+        <v>0.4481121958147957</v>
       </c>
       <c r="AK2">
-        <v>-0.1296103301898782</v>
+        <v>0.5535527187822538</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="AM2">
-        <v>-0.017</v>
+        <v>20.563</v>
       </c>
       <c r="AN2">
-        <v>-0.01842105263157895</v>
+        <v>3.40800896213876</v>
+      </c>
+      <c r="AO2">
+        <v>9.026200873362447</v>
       </c>
       <c r="AP2">
-        <v>4.47280701754386</v>
+        <v>2.959332396612615</v>
       </c>
       <c r="AQ2">
-        <v>339.4117647058823</v>
+        <v>10.0520352088703</v>
       </c>
     </row>
     <row r="3">
@@ -692,106 +721,8961 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>NOS, S.G.P.S., S.A. (ENXTLS:NOS)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telecom. Services</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.0136</v>
+      </c>
+      <c r="E3">
+        <v>-0.003</v>
+      </c>
+      <c r="F3">
+        <v>0.0195</v>
+      </c>
+      <c r="G3">
+        <v>0.3056893269123082</v>
+      </c>
+      <c r="H3">
+        <v>0.3056893269123082</v>
+      </c>
+      <c r="I3">
+        <v>0.1180983312800986</v>
+      </c>
+      <c r="J3">
+        <v>0.1062192999111043</v>
+      </c>
+      <c r="K3">
+        <v>99.3</v>
+      </c>
+      <c r="L3">
+        <v>0.05560533094411468</v>
+      </c>
+      <c r="M3">
+        <v>175.03</v>
+      </c>
+      <c r="N3">
+        <v>0.09776573758587946</v>
+      </c>
+      <c r="O3">
+        <v>1.762638469284995</v>
+      </c>
+      <c r="P3">
+        <v>167.4</v>
+      </c>
+      <c r="Q3">
+        <v>0.09350388203094454</v>
+      </c>
+      <c r="R3">
+        <v>1.685800604229607</v>
+      </c>
+      <c r="S3">
+        <v>7.629999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.04359252699537219</v>
+      </c>
+      <c r="U3">
+        <v>211.7</v>
+      </c>
+      <c r="V3">
+        <v>0.1182483382673295</v>
+      </c>
+      <c r="W3">
+        <v>0.09065181668796786</v>
+      </c>
+      <c r="X3">
+        <v>0.07213922670239446</v>
+      </c>
+      <c r="Y3">
+        <v>0.0185125899855734</v>
+      </c>
+      <c r="Z3">
+        <v>0.9677034789205592</v>
+      </c>
+      <c r="AA3">
+        <v>0.1027887860524818</v>
+      </c>
+      <c r="AB3">
+        <v>0.05574189017446791</v>
+      </c>
+      <c r="AC3">
+        <v>0.04704689587801393</v>
+      </c>
+      <c r="AD3">
+        <v>1794.6</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1794.6</v>
+      </c>
+      <c r="AG3">
+        <v>1582.9</v>
+      </c>
+      <c r="AH3">
+        <v>0.5005997377890596</v>
+      </c>
+      <c r="AI3">
+        <v>0.6181029138251706</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4692576781690976</v>
+      </c>
+      <c r="AK3">
+        <v>0.5880670208418471</v>
+      </c>
+      <c r="AL3">
+        <v>22.9</v>
+      </c>
+      <c r="AM3">
+        <v>20.57</v>
+      </c>
+      <c r="AN3">
+        <v>3.381571509327303</v>
+      </c>
+      <c r="AO3">
+        <v>9.209606986899564</v>
+      </c>
+      <c r="AP3">
+        <v>2.982664405502166</v>
+      </c>
+      <c r="AQ3">
+        <v>10.25279533300924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Pharol, SGPS S.A. (ENXTLS:PHR)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Telecom. Services</t>
         </is>
       </c>
+      <c r="K4">
+        <v>-6.51</v>
+      </c>
+      <c r="M4">
+        <v>2.44</v>
+      </c>
+      <c r="N4">
+        <v>0.01888544891640867</v>
+      </c>
+      <c r="O4">
+        <v>-0.3748079877112135</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.44</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>24.6</v>
+      </c>
+      <c r="V4">
+        <v>0.1904024767801858</v>
+      </c>
+      <c r="W4">
+        <v>-0.0292979297929793</v>
+      </c>
+      <c r="X4">
+        <v>0.0444247198965904</v>
+      </c>
+      <c r="Y4">
+        <v>-0.07372264968956969</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-0.02135177041763046</v>
+      </c>
+      <c r="AB4">
+        <v>0.044396612144776</v>
+      </c>
+      <c r="AC4">
+        <v>-0.06574838256240646</v>
+      </c>
+      <c r="AD4">
+        <v>0.262</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.262</v>
+      </c>
+      <c r="AG4">
+        <v>-24.338</v>
+      </c>
+      <c r="AH4">
+        <v>0.002023759867760424</v>
+      </c>
+      <c r="AI4">
+        <v>0.001764761353073514</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.2320955160115199</v>
+      </c>
+      <c r="AK4">
+        <v>-0.1964928710984806</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>-0.007</v>
+      </c>
+      <c r="AN4">
+        <v>-0.06485148514851485</v>
+      </c>
+      <c r="AP4">
+        <v>6.024257425742574</v>
+      </c>
+      <c r="AQ4">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NOS, S.G.P.S., S.A. (ENXTLS:NOS)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ENXTLS:NOS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Telecom. Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.50059973778906</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1790.3</v>
+      </c>
+      <c r="H2">
+        <v>4115.74684562696</v>
+      </c>
+      <c r="I2">
+        <v>3373.2</v>
+      </c>
+      <c r="J2">
+        <v>3904.04684562696</v>
+      </c>
+      <c r="K2">
+        <v>1794.6</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0557418901744679</v>
+      </c>
+      <c r="N2">
+        <v>0.0443685396617669</v>
+      </c>
+      <c r="O2">
+        <v>0.039383842929429</v>
+      </c>
+      <c r="P2">
+        <v>0.028165842929429</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0721392267023945</v>
+      </c>
+      <c r="T2">
+        <v>0.0443685396617669</v>
+      </c>
+      <c r="U2">
+        <v>0.917107153698717</v>
+      </c>
+      <c r="V2">
+        <v>0.511807835349255</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0.01945296573345438</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1790.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.06851895817076799</v>
+      </c>
+      <c r="AC2">
+        <v>0.04985296573345438</v>
+      </c>
+      <c r="AD2">
+        <v>0.21</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>530.7</v>
+      </c>
+      <c r="AH2">
+        <v>503.3</v>
+      </c>
+      <c r="AI2">
+        <v>234.7</v>
+      </c>
+      <c r="AJ2">
+        <v>1794.6</v>
+      </c>
+      <c r="AK2">
+        <v>1794.6</v>
+      </c>
+      <c r="AL2">
+        <v>22.9</v>
+      </c>
+      <c r="AM2">
+        <v>1794.6</v>
+      </c>
+      <c r="AN2">
+        <v>211.7</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04436853966176693</v>
+      </c>
+      <c r="C2">
+        <v>4115.746845626963</v>
+      </c>
+      <c r="D2">
+        <v>3904.046845626963</v>
+      </c>
+      <c r="E2">
+        <v>-1794.6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>211.7</v>
+      </c>
+      <c r="H2">
+        <v>1790.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>530.7</v>
+      </c>
+      <c r="K2">
+        <v>503.3</v>
+      </c>
+      <c r="L2">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="O2">
+        <v>5.754000000000007</v>
+      </c>
+      <c r="P2">
+        <v>21.64600000000003</v>
+      </c>
+      <c r="Q2">
+        <v>524.946</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.04436853966176693</v>
+      </c>
+      <c r="T2">
+        <v>0.5118078353492552</v>
+      </c>
+      <c r="U2">
+        <v>0.03565296573345438</v>
+      </c>
+      <c r="V2">
+        <v>0.21</v>
+      </c>
+      <c r="W2">
+        <v>0.02816584292942896</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.0444835541577715</v>
+      </c>
+      <c r="C3">
+        <v>4073.694646526739</v>
+      </c>
+      <c r="D3">
+        <v>3897.843646526739</v>
+      </c>
       <c r="E3">
-        <v>-0.451</v>
+        <v>-1758.751</v>
+      </c>
+      <c r="F3">
+        <v>35.849</v>
+      </c>
+      <c r="G3">
+        <v>211.7</v>
+      </c>
+      <c r="H3">
+        <v>1790.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>530.7</v>
       </c>
       <c r="K3">
-        <v>24.9</v>
+        <v>503.3</v>
+      </c>
+      <c r="L3">
+        <v>27.40000000000003</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>1.278123168578606</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>26.12187683142143</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>5.485594134598499</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>20.63628269682293</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>523.9362826968229</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.04464837952371435</v>
+      </c>
+      <c r="T3">
+        <v>0.5158919584798199</v>
       </c>
       <c r="U3">
-        <v>25.6</v>
+        <v>0.03565296573345438</v>
       </c>
       <c r="V3">
-        <v>0.2647362978283351</v>
+        <v>0.21</v>
       </c>
       <c r="W3">
-        <v>0.09100877192982455</v>
-      </c>
-      <c r="X3">
-        <v>0.06248718419854367</v>
+        <v>0.02816584292942896</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>0.02852158773128088</v>
+        <v>21.43768352972697</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
-        <v>-0.0241529143863622</v>
-      </c>
-      <c r="AB3">
-        <v>0.0624644828501376</v>
-      </c>
-      <c r="AC3">
-        <v>-0.0866173972364998</v>
-      </c>
-      <c r="AD3">
-        <v>0.105</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.105</v>
-      </c>
-      <c r="AG3">
-        <v>-25.495</v>
-      </c>
-      <c r="AH3">
-        <v>0.001084654718248024</v>
-      </c>
-      <c r="AI3">
-        <v>0.0004723240592879153</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.35805069868689</v>
-      </c>
-      <c r="AK3">
-        <v>-0.1296103301898782</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-0.017</v>
-      </c>
-      <c r="AN3">
-        <v>-0.01842105263157895</v>
-      </c>
-      <c r="AP3">
-        <v>4.47280701754386</v>
-      </c>
-      <c r="AQ3">
-        <v>339.4117647058823</v>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0446238486537761</v>
+      </c>
+      <c r="C4">
+        <v>4030.305630803662</v>
+      </c>
+      <c r="D4">
+        <v>3890.303630803662</v>
+      </c>
+      <c r="E4">
+        <v>-1722.902</v>
+      </c>
+      <c r="F4">
+        <v>71.69799999999999</v>
+      </c>
+      <c r="G4">
+        <v>211.7</v>
+      </c>
+      <c r="H4">
+        <v>1790.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>530.7</v>
+      </c>
+      <c r="K4">
+        <v>503.3</v>
+      </c>
+      <c r="L4">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M4">
+        <v>2.670963137157212</v>
+      </c>
+      <c r="N4">
+        <v>24.72903686284282</v>
+      </c>
+      <c r="O4">
+        <v>5.193097741196993</v>
+      </c>
+      <c r="P4">
+        <v>19.53593912164583</v>
+      </c>
+      <c r="Q4">
+        <v>522.8359391216459</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04493393040325257</v>
+      </c>
+      <c r="T4">
+        <v>0.520059431062029</v>
+      </c>
+      <c r="U4">
+        <v>0.03725296573345438</v>
+      </c>
+      <c r="V4">
+        <v>0.21</v>
+      </c>
+      <c r="W4">
+        <v>0.02942984292942896</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>10.25847179200036</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04482971314978066</v>
+      </c>
+      <c r="C5">
+        <v>3983.445265824838</v>
+      </c>
+      <c r="D5">
+        <v>3879.292265824838</v>
+      </c>
+      <c r="E5">
+        <v>-1687.053</v>
+      </c>
+      <c r="F5">
+        <v>107.547</v>
+      </c>
+      <c r="G5">
+        <v>211.7</v>
+      </c>
+      <c r="H5">
+        <v>1790.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>530.7</v>
+      </c>
+      <c r="K5">
+        <v>503.3</v>
+      </c>
+      <c r="L5">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M5">
+        <v>4.361349805735817</v>
+      </c>
+      <c r="N5">
+        <v>23.03865019426422</v>
+      </c>
+      <c r="O5">
+        <v>4.838116540795485</v>
+      </c>
+      <c r="P5">
+        <v>18.20053365346873</v>
+      </c>
+      <c r="Q5">
+        <v>521.5005336534688</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04522536892979154</v>
+      </c>
+      <c r="T5">
+        <v>0.5243128309139741</v>
+      </c>
+      <c r="U5">
+        <v>0.04055296573345438</v>
+      </c>
+      <c r="V5">
+        <v>0.21</v>
+      </c>
+      <c r="W5">
+        <v>0.03203684292942896</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>6.282458692940658</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.04503083764578524</v>
+      </c>
+      <c r="C6">
+        <v>3936.898468117348</v>
+      </c>
+      <c r="D6">
+        <v>3868.594468117348</v>
+      </c>
+      <c r="E6">
+        <v>-1651.204</v>
+      </c>
+      <c r="F6">
+        <v>143.396</v>
+      </c>
+      <c r="G6">
+        <v>211.7</v>
+      </c>
+      <c r="H6">
+        <v>1790.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>530.7</v>
+      </c>
+      <c r="K6">
+        <v>503.3</v>
+      </c>
+      <c r="L6">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M6">
+        <v>6.030227074314423</v>
+      </c>
+      <c r="N6">
+        <v>21.36977292568561</v>
+      </c>
+      <c r="O6">
+        <v>4.487652314393978</v>
+      </c>
+      <c r="P6">
+        <v>16.88212061129163</v>
+      </c>
+      <c r="Q6">
+        <v>520.1821206112917</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04552287909230009</v>
+      </c>
+      <c r="T6">
+        <v>0.5286548432628349</v>
+      </c>
+      <c r="U6">
+        <v>0.04205296573345438</v>
+      </c>
+      <c r="V6">
+        <v>0.21</v>
+      </c>
+      <c r="W6">
+        <v>0.03322184292942896</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>4.543775825077887</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04701736214178982</v>
+      </c>
+      <c r="C7">
+        <v>3798.471738479425</v>
+      </c>
+      <c r="D7">
+        <v>3766.016738479425</v>
+      </c>
+      <c r="E7">
+        <v>-1615.355</v>
+      </c>
+      <c r="F7">
+        <v>179.245</v>
+      </c>
+      <c r="G7">
+        <v>211.7</v>
+      </c>
+      <c r="H7">
+        <v>1790.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>530.7</v>
+      </c>
+      <c r="K7">
+        <v>503.3</v>
+      </c>
+      <c r="L7">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M7">
+        <v>15.80097834289303</v>
+      </c>
+      <c r="N7">
+        <v>11.599021657107</v>
+      </c>
+      <c r="O7">
+        <v>2.435794547992471</v>
+      </c>
+      <c r="P7">
+        <v>9.163227109114533</v>
+      </c>
+      <c r="Q7">
+        <v>512.4632271091145</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.04582665262665092</v>
+      </c>
+      <c r="T7">
+        <v>0.5330882663979875</v>
+      </c>
+      <c r="U7">
+        <v>0.08815296573345438</v>
+      </c>
+      <c r="V7">
+        <v>0.21</v>
+      </c>
+      <c r="W7">
+        <v>0.06964084292942896</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>B3/B-</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>1.734069840828813</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.04947445798347119</v>
+      </c>
+      <c r="C8">
+        <v>3643.032558553186</v>
+      </c>
+      <c r="D8">
+        <v>3646.426558553186</v>
+      </c>
+      <c r="E8">
+        <v>-1579.506</v>
+      </c>
+      <c r="F8">
+        <v>215.094</v>
+      </c>
+      <c r="G8">
+        <v>211.7</v>
+      </c>
+      <c r="H8">
+        <v>1790.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>530.7</v>
+      </c>
+      <c r="K8">
+        <v>503.3</v>
+      </c>
+      <c r="L8">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M8">
+        <v>27.62946221147163</v>
+      </c>
+      <c r="N8">
+        <v>-0.2294622114715992</v>
+      </c>
+      <c r="O8">
+        <v>-0.04818706440903583</v>
+      </c>
+      <c r="P8">
+        <v>-0.1812751470625633</v>
+      </c>
+      <c r="Q8">
+        <v>503.1187248529375</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04614079333156694</v>
+      </c>
+      <c r="T8">
+        <v>0.5376729932137848</v>
+      </c>
+      <c r="U8">
+        <v>0.1284529657334544</v>
+      </c>
+      <c r="V8">
+        <v>0.2082559535889544</v>
+      </c>
+      <c r="W8">
+        <v>0.1017018708633046</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.9916950170902593</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05066598764080573</v>
+      </c>
+      <c r="C9">
+        <v>3551.883356358199</v>
+      </c>
+      <c r="D9">
+        <v>3591.126356358199</v>
+      </c>
+      <c r="E9">
+        <v>-1543.657</v>
+      </c>
+      <c r="F9">
+        <v>250.943</v>
+      </c>
+      <c r="G9">
+        <v>211.7</v>
+      </c>
+      <c r="H9">
+        <v>1790.3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>530.7</v>
+      </c>
+      <c r="K9">
+        <v>503.3</v>
+      </c>
+      <c r="L9">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M9">
+        <v>32.23437258005024</v>
+      </c>
+      <c r="N9">
+        <v>-4.834372580050207</v>
+      </c>
+      <c r="O9">
+        <v>-1.015218241810544</v>
+      </c>
+      <c r="P9">
+        <v>-3.819154338239664</v>
+      </c>
+      <c r="Q9">
+        <v>499.4808456617603</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.04653693089427195</v>
+      </c>
+      <c r="T9">
+        <v>0.5434544232483416</v>
+      </c>
+      <c r="U9">
+        <v>0.1284529657334544</v>
+      </c>
+      <c r="V9">
+        <v>0.1785051030762466</v>
+      </c>
+      <c r="W9">
+        <v>0.1055234558447545</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.8500243003630793</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05443915085061534</v>
+      </c>
+      <c r="C10">
+        <v>3351.476218067167</v>
+      </c>
+      <c r="D10">
+        <v>3426.568218067167</v>
+      </c>
+      <c r="E10">
+        <v>-1507.808</v>
+      </c>
+      <c r="F10">
+        <v>286.792</v>
+      </c>
+      <c r="G10">
+        <v>211.7</v>
+      </c>
+      <c r="H10">
+        <v>1790.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>530.7</v>
+      </c>
+      <c r="K10">
+        <v>503.3</v>
+      </c>
+      <c r="L10">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M10">
+        <v>45.78719334862884</v>
+      </c>
+      <c r="N10">
+        <v>-18.38719334862881</v>
+      </c>
+      <c r="O10">
+        <v>-3.861310603212049</v>
+      </c>
+      <c r="P10">
+        <v>-14.52588274541676</v>
+      </c>
+      <c r="Q10">
+        <v>488.7741172545832</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04703476009146519</v>
+      </c>
+      <c r="T10">
+        <v>0.5507199919388711</v>
+      </c>
+      <c r="U10">
+        <v>0.1596529657334544</v>
+      </c>
+      <c r="V10">
+        <v>0.1256683273025364</v>
+      </c>
+      <c r="W10">
+        <v>0.139589644580842</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.5984206062025543</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05594268050794988</v>
+      </c>
+      <c r="C11">
+        <v>3254.180896771831</v>
+      </c>
+      <c r="D11">
+        <v>3365.121896771831</v>
+      </c>
+      <c r="E11">
+        <v>-1471.959</v>
+      </c>
+      <c r="F11">
+        <v>322.641</v>
+      </c>
+      <c r="G11">
+        <v>211.7</v>
+      </c>
+      <c r="H11">
+        <v>1790.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>530.7</v>
+      </c>
+      <c r="K11">
+        <v>503.3</v>
+      </c>
+      <c r="L11">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M11">
+        <v>51.51059251720744</v>
+      </c>
+      <c r="N11">
+        <v>-24.11059251720741</v>
+      </c>
+      <c r="O11">
+        <v>-5.063224428613555</v>
+      </c>
+      <c r="P11">
+        <v>-19.04736808859385</v>
+      </c>
+      <c r="Q11">
+        <v>484.2526319114062</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.04744942778477799</v>
+      </c>
+      <c r="T11">
+        <v>0.5567718599821554</v>
+      </c>
+      <c r="U11">
+        <v>0.1596529657334544</v>
+      </c>
+      <c r="V11">
+        <v>0.1117051798244768</v>
+      </c>
+      <c r="W11">
+        <v>0.1418189024866878</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.5319294277356039</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06187170193263843</v>
+      </c>
+      <c r="C12">
+        <v>2996.085512181321</v>
+      </c>
+      <c r="D12">
+        <v>3142.875512181321</v>
+      </c>
+      <c r="E12">
+        <v>-1436.11</v>
+      </c>
+      <c r="F12">
+        <v>358.49</v>
+      </c>
+      <c r="G12">
+        <v>211.7</v>
+      </c>
+      <c r="H12">
+        <v>1790.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>530.7</v>
+      </c>
+      <c r="K12">
+        <v>503.3</v>
+      </c>
+      <c r="L12">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M12">
+        <v>72.82830668578606</v>
+      </c>
+      <c r="N12">
+        <v>-45.42830668578603</v>
+      </c>
+      <c r="O12">
+        <v>-9.539944404015065</v>
+      </c>
+      <c r="P12">
+        <v>-35.88836228177096</v>
+      </c>
+      <c r="Q12">
+        <v>467.411637718229</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.04795719005722442</v>
+      </c>
+      <c r="T12">
+        <v>0.5641823969488871</v>
+      </c>
+      <c r="U12">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V12">
+        <v>0.07900774110848602</v>
+      </c>
+      <c r="W12">
+        <v>0.1871023088113645</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.3762273386118382</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06381023158997297</v>
+      </c>
+      <c r="C13">
+        <v>2893.805268037946</v>
+      </c>
+      <c r="D13">
+        <v>3076.444268037946</v>
+      </c>
+      <c r="E13">
+        <v>-1400.261</v>
+      </c>
+      <c r="F13">
+        <v>394.3389999999999</v>
+      </c>
+      <c r="G13">
+        <v>211.7</v>
+      </c>
+      <c r="H13">
+        <v>1790.3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>530.7</v>
+      </c>
+      <c r="K13">
+        <v>503.3</v>
+      </c>
+      <c r="L13">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M13">
+        <v>80.11113735436466</v>
+      </c>
+      <c r="N13">
+        <v>-52.71113735436462</v>
+      </c>
+      <c r="O13">
+        <v>-11.06933884441657</v>
+      </c>
+      <c r="P13">
+        <v>-41.64179850994805</v>
+      </c>
+      <c r="Q13">
+        <v>461.658201490052</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0483915405073056</v>
+      </c>
+      <c r="T13">
+        <v>0.5705215250044926</v>
+      </c>
+      <c r="U13">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V13">
+        <v>0.07182521918953276</v>
+      </c>
+      <c r="W13">
+        <v>0.1885614594406454</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.3420248532834893</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.0657487612473075</v>
+      </c>
+      <c r="C14">
+        <v>2794.275219206838</v>
+      </c>
+      <c r="D14">
+        <v>3012.763219206838</v>
+      </c>
+      <c r="E14">
+        <v>-1364.412</v>
+      </c>
+      <c r="F14">
+        <v>430.1879999999999</v>
+      </c>
+      <c r="G14">
+        <v>211.7</v>
+      </c>
+      <c r="H14">
+        <v>1790.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>530.7</v>
+      </c>
+      <c r="K14">
+        <v>503.3</v>
+      </c>
+      <c r="L14">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M14">
+        <v>87.39396802294326</v>
+      </c>
+      <c r="N14">
+        <v>-59.99396802294322</v>
+      </c>
+      <c r="O14">
+        <v>-12.59873328481808</v>
+      </c>
+      <c r="P14">
+        <v>-47.39523473812515</v>
+      </c>
+      <c r="Q14">
+        <v>455.9047652618748</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.04883576255852497</v>
+      </c>
+      <c r="T14">
+        <v>0.5770047241522709</v>
+      </c>
+      <c r="U14">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V14">
+        <v>0.0658397842570717</v>
+      </c>
+      <c r="W14">
+        <v>0.1897774182983795</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.313522782176532</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06768729090464207</v>
+      </c>
+      <c r="C15">
+        <v>2697.328045624971</v>
+      </c>
+      <c r="D15">
+        <v>2951.665045624971</v>
+      </c>
+      <c r="E15">
+        <v>-1328.563</v>
+      </c>
+      <c r="F15">
+        <v>466.037</v>
+      </c>
+      <c r="G15">
+        <v>211.7</v>
+      </c>
+      <c r="H15">
+        <v>1790.3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>530.7</v>
+      </c>
+      <c r="K15">
+        <v>503.3</v>
+      </c>
+      <c r="L15">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M15">
+        <v>94.67679869152187</v>
+      </c>
+      <c r="N15">
+        <v>-67.27679869152183</v>
+      </c>
+      <c r="O15">
+        <v>-14.12812772521958</v>
+      </c>
+      <c r="P15">
+        <v>-53.14867096630225</v>
+      </c>
+      <c r="Q15">
+        <v>450.1513290336978</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.04929019661092182</v>
+      </c>
+      <c r="T15">
+        <v>0.5836369623609178</v>
+      </c>
+      <c r="U15">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V15">
+        <v>0.06077518546806619</v>
+      </c>
+      <c r="W15">
+        <v>0.190806306562616</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.2894056450860294</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.0696258205619766</v>
+      </c>
+      <c r="C16">
+        <v>2602.80973030184</v>
+      </c>
+      <c r="D16">
+        <v>2892.99573030184</v>
+      </c>
+      <c r="E16">
+        <v>-1292.714</v>
+      </c>
+      <c r="F16">
+        <v>501.886</v>
+      </c>
+      <c r="G16">
+        <v>211.7</v>
+      </c>
+      <c r="H16">
+        <v>1790.3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>530.7</v>
+      </c>
+      <c r="K16">
+        <v>503.3</v>
+      </c>
+      <c r="L16">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M16">
+        <v>101.9596293601005</v>
+      </c>
+      <c r="N16">
+        <v>-74.55962936010044</v>
+      </c>
+      <c r="O16">
+        <v>-15.65752216562109</v>
+      </c>
+      <c r="P16">
+        <v>-58.90210719447936</v>
+      </c>
+      <c r="Q16">
+        <v>444.3978928055207</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.04975519889709532</v>
+      </c>
+      <c r="T16">
+        <v>0.59042343866744</v>
+      </c>
+      <c r="U16">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V16">
+        <v>0.05643410079177574</v>
+      </c>
+      <c r="W16">
+        <v>0.1916882107891044</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.2687338132941702</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07156435021931112</v>
+      </c>
+      <c r="C17">
+        <v>2510.578262981468</v>
+      </c>
+      <c r="D17">
+        <v>2836.613262981467</v>
+      </c>
+      <c r="E17">
+        <v>-1256.865</v>
+      </c>
+      <c r="F17">
+        <v>537.7349999999999</v>
+      </c>
+      <c r="G17">
+        <v>211.7</v>
+      </c>
+      <c r="H17">
+        <v>1790.3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>530.7</v>
+      </c>
+      <c r="K17">
+        <v>503.3</v>
+      </c>
+      <c r="L17">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M17">
+        <v>109.2424600286791</v>
+      </c>
+      <c r="N17">
+        <v>-81.84246002867903</v>
+      </c>
+      <c r="O17">
+        <v>-17.1869166060226</v>
+      </c>
+      <c r="P17">
+        <v>-64.65554342265644</v>
+      </c>
+      <c r="Q17">
+        <v>438.6444565773436</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05023114241353173</v>
+      </c>
+      <c r="T17">
+        <v>0.5973695967694098</v>
+      </c>
+      <c r="U17">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V17">
+        <v>0.05267182740565736</v>
+      </c>
+      <c r="W17">
+        <v>0.1924525277853944</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.2508182257412256</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07350287987664568</v>
+      </c>
+      <c r="C18">
+        <v>2420.502492494885</v>
+      </c>
+      <c r="D18">
+        <v>2782.386492494885</v>
+      </c>
+      <c r="E18">
+        <v>-1221.016</v>
+      </c>
+      <c r="F18">
+        <v>573.5839999999999</v>
+      </c>
+      <c r="G18">
+        <v>211.7</v>
+      </c>
+      <c r="H18">
+        <v>1790.3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>530.7</v>
+      </c>
+      <c r="K18">
+        <v>503.3</v>
+      </c>
+      <c r="L18">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M18">
+        <v>116.5252906972577</v>
+      </c>
+      <c r="N18">
+        <v>-89.12529069725765</v>
+      </c>
+      <c r="O18">
+        <v>-18.71631104642411</v>
+      </c>
+      <c r="P18">
+        <v>-70.40897965083354</v>
+      </c>
+      <c r="Q18">
+        <v>432.8910203491665</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05071841791845473</v>
+      </c>
+      <c r="T18">
+        <v>0.6044811395880932</v>
+      </c>
+      <c r="U18">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V18">
+        <v>0.04937983819280377</v>
+      </c>
+      <c r="W18">
+        <v>0.1931213051571482</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.2351420866323989</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07544140953398021</v>
+      </c>
+      <c r="C19">
+        <v>2332.46110827898</v>
+      </c>
+      <c r="D19">
+        <v>2730.19410827898</v>
+      </c>
+      <c r="E19">
+        <v>-1185.167</v>
+      </c>
+      <c r="F19">
+        <v>609.433</v>
+      </c>
+      <c r="G19">
+        <v>211.7</v>
+      </c>
+      <c r="H19">
+        <v>1790.3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>530.7</v>
+      </c>
+      <c r="K19">
+        <v>503.3</v>
+      </c>
+      <c r="L19">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M19">
+        <v>123.8081213658363</v>
+      </c>
+      <c r="N19">
+        <v>-96.40812136583627</v>
+      </c>
+      <c r="O19">
+        <v>-20.24570548682561</v>
+      </c>
+      <c r="P19">
+        <v>-76.16241587901065</v>
+      </c>
+      <c r="Q19">
+        <v>427.1375841209893</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.0512174350018096</v>
+      </c>
+      <c r="T19">
+        <v>0.6117640448843353</v>
+      </c>
+      <c r="U19">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V19">
+        <v>0.04647514182852119</v>
+      </c>
+      <c r="W19">
+        <v>0.1937114028381074</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.2213101991834343</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07737993919131478</v>
+      </c>
+      <c r="C20">
+        <v>2246.341734413551</v>
+      </c>
+      <c r="D20">
+        <v>2679.92373441355</v>
+      </c>
+      <c r="E20">
+        <v>-1149.318</v>
+      </c>
+      <c r="F20">
+        <v>645.2819999999999</v>
+      </c>
+      <c r="G20">
+        <v>211.7</v>
+      </c>
+      <c r="H20">
+        <v>1790.3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>530.7</v>
+      </c>
+      <c r="K20">
+        <v>503.3</v>
+      </c>
+      <c r="L20">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M20">
+        <v>131.0909520344149</v>
+      </c>
+      <c r="N20">
+        <v>-103.6909520344149</v>
+      </c>
+      <c r="O20">
+        <v>-21.77509992722712</v>
+      </c>
+      <c r="P20">
+        <v>-81.91585210718775</v>
+      </c>
+      <c r="Q20">
+        <v>421.3841478928123</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.051728623233539</v>
+      </c>
+      <c r="T20">
+        <v>0.6192245820170712</v>
+      </c>
+      <c r="U20">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V20">
+        <v>0.04389318950471446</v>
+      </c>
+      <c r="W20">
+        <v>0.1942359341100711</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.2090151881176879</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07931846884864932</v>
+      </c>
+      <c r="C21">
+        <v>2162.040121936407</v>
+      </c>
+      <c r="D21">
+        <v>2631.471121936407</v>
+      </c>
+      <c r="E21">
+        <v>-1113.469</v>
+      </c>
+      <c r="F21">
+        <v>681.131</v>
+      </c>
+      <c r="G21">
+        <v>211.7</v>
+      </c>
+      <c r="H21">
+        <v>1790.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>530.7</v>
+      </c>
+      <c r="K21">
+        <v>503.3</v>
+      </c>
+      <c r="L21">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M21">
+        <v>138.3737827029935</v>
+      </c>
+      <c r="N21">
+        <v>-110.9737827029935</v>
+      </c>
+      <c r="O21">
+        <v>-23.30449436762863</v>
+      </c>
+      <c r="P21">
+        <v>-87.66928833536485</v>
+      </c>
+      <c r="Q21">
+        <v>415.6307116646352</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05225243339691601</v>
+      </c>
+      <c r="T21">
+        <v>0.6268693299432079</v>
+      </c>
+      <c r="U21">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V21">
+        <v>0.04158302163604528</v>
+      </c>
+      <c r="W21">
+        <v>0.1947052515639334</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1980143887430728</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08125699850598386</v>
+      </c>
+      <c r="C22">
+        <v>2079.459427219407</v>
+      </c>
+      <c r="D22">
+        <v>2584.739427219407</v>
+      </c>
+      <c r="E22">
+        <v>-1077.62</v>
+      </c>
+      <c r="F22">
+        <v>716.98</v>
+      </c>
+      <c r="G22">
+        <v>211.7</v>
+      </c>
+      <c r="H22">
+        <v>1790.3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>530.7</v>
+      </c>
+      <c r="K22">
+        <v>503.3</v>
+      </c>
+      <c r="L22">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M22">
+        <v>145.6566133715721</v>
+      </c>
+      <c r="N22">
+        <v>-118.2566133715721</v>
+      </c>
+      <c r="O22">
+        <v>-24.83388880803014</v>
+      </c>
+      <c r="P22">
+        <v>-93.42272456354195</v>
+      </c>
+      <c r="Q22">
+        <v>409.877275436458</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05278933881437747</v>
+      </c>
+      <c r="T22">
+        <v>0.634705196567498</v>
+      </c>
+      <c r="U22">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V22">
+        <v>0.03950387055424301</v>
+      </c>
+      <c r="W22">
+        <v>0.1951276372724094</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1881136693059191</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08319552816331841</v>
+      </c>
+      <c r="C23">
+        <v>1998.509565893772</v>
+      </c>
+      <c r="D23">
+        <v>2539.638565893772</v>
+      </c>
+      <c r="E23">
+        <v>-1041.771</v>
+      </c>
+      <c r="F23">
+        <v>752.829</v>
+      </c>
+      <c r="G23">
+        <v>211.7</v>
+      </c>
+      <c r="H23">
+        <v>1790.3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>530.7</v>
+      </c>
+      <c r="K23">
+        <v>503.3</v>
+      </c>
+      <c r="L23">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M23">
+        <v>152.9394440401507</v>
+      </c>
+      <c r="N23">
+        <v>-125.5394440401507</v>
+      </c>
+      <c r="O23">
+        <v>-26.36328324843164</v>
+      </c>
+      <c r="P23">
+        <v>-99.17616079171903</v>
+      </c>
+      <c r="Q23">
+        <v>404.123839208281</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.05333983677405313</v>
+      </c>
+      <c r="T23">
+        <v>0.6427394395620232</v>
+      </c>
+      <c r="U23">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V23">
+        <v>0.03762273386118383</v>
+      </c>
+      <c r="W23">
+        <v>0.1955097957705544</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1791558755294468</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.08513405782065295</v>
+      </c>
+      <c r="C24">
+        <v>1919.106633255155</v>
+      </c>
+      <c r="D24">
+        <v>2496.084633255155</v>
+      </c>
+      <c r="E24">
+        <v>-1005.922</v>
+      </c>
+      <c r="F24">
+        <v>788.6779999999999</v>
+      </c>
+      <c r="G24">
+        <v>211.7</v>
+      </c>
+      <c r="H24">
+        <v>1790.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>530.7</v>
+      </c>
+      <c r="K24">
+        <v>503.3</v>
+      </c>
+      <c r="L24">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M24">
+        <v>160.2222747087293</v>
+      </c>
+      <c r="N24">
+        <v>-132.8222747087293</v>
+      </c>
+      <c r="O24">
+        <v>-27.89267768883315</v>
+      </c>
+      <c r="P24">
+        <v>-104.9295970198961</v>
+      </c>
+      <c r="Q24">
+        <v>398.3704029801039</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05390445006602818</v>
+      </c>
+      <c r="T24">
+        <v>0.6509796887871774</v>
+      </c>
+      <c r="U24">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V24">
+        <v>0.03591260959476638</v>
+      </c>
+      <c r="W24">
+        <v>0.1958572125870499</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1710124266417447</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.0870725874779875</v>
+      </c>
+      <c r="C25">
+        <v>1841.172383302298</v>
+      </c>
+      <c r="D25">
+        <v>2453.999383302299</v>
+      </c>
+      <c r="E25">
+        <v>-970.073</v>
+      </c>
+      <c r="F25">
+        <v>824.5269999999999</v>
+      </c>
+      <c r="G25">
+        <v>211.7</v>
+      </c>
+      <c r="H25">
+        <v>1790.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>530.7</v>
+      </c>
+      <c r="K25">
+        <v>503.3</v>
+      </c>
+      <c r="L25">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M25">
+        <v>167.5051053773079</v>
+      </c>
+      <c r="N25">
+        <v>-140.1051053773079</v>
+      </c>
+      <c r="O25">
+        <v>-29.42207212923466</v>
+      </c>
+      <c r="P25">
+        <v>-110.6830332480732</v>
+      </c>
+      <c r="Q25">
+        <v>392.6169667519268</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.05448372863831426</v>
+      </c>
+      <c r="T25">
+        <v>0.6594339704597382</v>
+      </c>
+      <c r="U25">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V25">
+        <v>0.03435119178629827</v>
+      </c>
+      <c r="W25">
+        <v>0.1961744192455892</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.1635771037442775</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08901111713532203</v>
+      </c>
+      <c r="C26">
+        <v>1764.633759603865</v>
+      </c>
+      <c r="D26">
+        <v>2413.309759603865</v>
+      </c>
+      <c r="E26">
+        <v>-934.224</v>
+      </c>
+      <c r="F26">
+        <v>860.3759999999999</v>
+      </c>
+      <c r="G26">
+        <v>211.7</v>
+      </c>
+      <c r="H26">
+        <v>1790.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>530.7</v>
+      </c>
+      <c r="K26">
+        <v>503.3</v>
+      </c>
+      <c r="L26">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M26">
+        <v>174.7879360458865</v>
+      </c>
+      <c r="N26">
+        <v>-147.3879360458865</v>
+      </c>
+      <c r="O26">
+        <v>-30.95146656963616</v>
+      </c>
+      <c r="P26">
+        <v>-116.4364694762503</v>
+      </c>
+      <c r="Q26">
+        <v>386.8635305237497</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.05507825138355522</v>
+      </c>
+      <c r="T26">
+        <v>0.6681107332289452</v>
+      </c>
+      <c r="U26">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V26">
+        <v>0.03291989212853585</v>
+      </c>
+      <c r="W26">
+        <v>0.1964651920159169</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.1567613910882659</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09094964679265657</v>
+      </c>
+      <c r="C27">
+        <v>1689.42247207605</v>
+      </c>
+      <c r="D27">
+        <v>2373.94747207605</v>
+      </c>
+      <c r="E27">
+        <v>-898.375</v>
+      </c>
+      <c r="F27">
+        <v>896.2249999999999</v>
+      </c>
+      <c r="G27">
+        <v>211.7</v>
+      </c>
+      <c r="H27">
+        <v>1790.3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>530.7</v>
+      </c>
+      <c r="K27">
+        <v>503.3</v>
+      </c>
+      <c r="L27">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M27">
+        <v>182.0707667144651</v>
+      </c>
+      <c r="N27">
+        <v>-154.6707667144651</v>
+      </c>
+      <c r="O27">
+        <v>-32.48086101003766</v>
+      </c>
+      <c r="P27">
+        <v>-122.1899057044274</v>
+      </c>
+      <c r="Q27">
+        <v>381.1100942955726</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.0556886280686693</v>
+      </c>
+      <c r="T27">
+        <v>0.6770188763386645</v>
+      </c>
+      <c r="U27">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V27">
+        <v>0.03160309644339442</v>
+      </c>
+      <c r="W27">
+        <v>0.1967327029646184</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.1504909354447354</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09288817644999112</v>
+      </c>
+      <c r="C28">
+        <v>1615.474614513309</v>
+      </c>
+      <c r="D28">
+        <v>2335.848614513309</v>
+      </c>
+      <c r="E28">
+        <v>-862.526</v>
+      </c>
+      <c r="F28">
+        <v>932.074</v>
+      </c>
+      <c r="G28">
+        <v>211.7</v>
+      </c>
+      <c r="H28">
+        <v>1790.3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>530.7</v>
+      </c>
+      <c r="K28">
+        <v>503.3</v>
+      </c>
+      <c r="L28">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M28">
+        <v>189.3535973830437</v>
+      </c>
+      <c r="N28">
+        <v>-161.9535973830437</v>
+      </c>
+      <c r="O28">
+        <v>-34.01025545043917</v>
+      </c>
+      <c r="P28">
+        <v>-127.9433419326045</v>
+      </c>
+      <c r="Q28">
+        <v>375.3566580673955</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05631550142094861</v>
+      </c>
+      <c r="T28">
+        <v>0.6861677800729707</v>
+      </c>
+      <c r="U28">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V28">
+        <v>0.03038759273403309</v>
+      </c>
+      <c r="W28">
+        <v>0.1969796361480352</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1447028225430147</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09482670610732567</v>
+      </c>
+      <c r="C29">
+        <v>1542.730318366242</v>
+      </c>
+      <c r="D29">
+        <v>2298.953318366242</v>
+      </c>
+      <c r="E29">
+        <v>-826.6769999999999</v>
+      </c>
+      <c r="F29">
+        <v>967.923</v>
+      </c>
+      <c r="G29">
+        <v>211.7</v>
+      </c>
+      <c r="H29">
+        <v>1790.3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>530.7</v>
+      </c>
+      <c r="K29">
+        <v>503.3</v>
+      </c>
+      <c r="L29">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M29">
+        <v>196.6364280516223</v>
+      </c>
+      <c r="N29">
+        <v>-169.2364280516223</v>
+      </c>
+      <c r="O29">
+        <v>-35.53964989084069</v>
+      </c>
+      <c r="P29">
+        <v>-133.6967781607816</v>
+      </c>
+      <c r="Q29">
+        <v>369.6032218392183</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.05695954938561915</v>
+      </c>
+      <c r="T29">
+        <v>0.6955673387041074</v>
+      </c>
+      <c r="U29">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V29">
+        <v>0.0292621263364763</v>
+      </c>
+      <c r="W29">
+        <v>0.1972082779845322</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1393434587451253</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.0967652357646602</v>
+      </c>
+      <c r="C30">
+        <v>1471.133438821249</v>
+      </c>
+      <c r="D30">
+        <v>2263.20543882125</v>
+      </c>
+      <c r="E30">
+        <v>-790.8279999999999</v>
+      </c>
+      <c r="F30">
+        <v>1003.772</v>
+      </c>
+      <c r="G30">
+        <v>211.7</v>
+      </c>
+      <c r="H30">
+        <v>1790.3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>530.7</v>
+      </c>
+      <c r="K30">
+        <v>503.3</v>
+      </c>
+      <c r="L30">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M30">
+        <v>203.919258720201</v>
+      </c>
+      <c r="N30">
+        <v>-176.5192587202009</v>
+      </c>
+      <c r="O30">
+        <v>-37.06904433124219</v>
+      </c>
+      <c r="P30">
+        <v>-139.4502143889587</v>
+      </c>
+      <c r="Q30">
+        <v>363.8497856110413</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.05762148757153052</v>
+      </c>
+      <c r="T30">
+        <v>0.7052279961861089</v>
+      </c>
+      <c r="U30">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V30">
+        <v>0.02821705039588787</v>
+      </c>
+      <c r="W30">
+        <v>0.1974205882612794</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1343669066470851</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09870376542199474</v>
+      </c>
+      <c r="C31">
+        <v>1400.631269719808</v>
+      </c>
+      <c r="D31">
+        <v>2228.552269719808</v>
+      </c>
+      <c r="E31">
+        <v>-754.979</v>
+      </c>
+      <c r="F31">
+        <v>1039.621</v>
+      </c>
+      <c r="G31">
+        <v>211.7</v>
+      </c>
+      <c r="H31">
+        <v>1790.3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>530.7</v>
+      </c>
+      <c r="K31">
+        <v>503.3</v>
+      </c>
+      <c r="L31">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M31">
+        <v>211.2020893887795</v>
+      </c>
+      <c r="N31">
+        <v>-183.8020893887795</v>
+      </c>
+      <c r="O31">
+        <v>-38.59843877164369</v>
+      </c>
+      <c r="P31">
+        <v>-145.2036506171358</v>
+      </c>
+      <c r="Q31">
+        <v>358.0963493828642</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.05830207190352391</v>
+      </c>
+      <c r="T31">
+        <v>0.7151607848647864</v>
+      </c>
+      <c r="U31">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V31">
+        <v>0.02724404865809863</v>
+      </c>
+      <c r="W31">
+        <v>0.1976182564499751</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1297335650385649</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1006422950793293</v>
+      </c>
+      <c r="C32">
+        <v>1331.17428427295</v>
+      </c>
+      <c r="D32">
+        <v>2194.94428427295</v>
+      </c>
+      <c r="E32">
+        <v>-719.1300000000001</v>
+      </c>
+      <c r="F32">
+        <v>1075.47</v>
+      </c>
+      <c r="G32">
+        <v>211.7</v>
+      </c>
+      <c r="H32">
+        <v>1790.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>530.7</v>
+      </c>
+      <c r="K32">
+        <v>503.3</v>
+      </c>
+      <c r="L32">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M32">
+        <v>218.4849200573581</v>
+      </c>
+      <c r="N32">
+        <v>-191.0849200573581</v>
+      </c>
+      <c r="O32">
+        <v>-40.1278332120452</v>
+      </c>
+      <c r="P32">
+        <v>-150.9570868453129</v>
+      </c>
+      <c r="Q32">
+        <v>352.3429131546872</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.05900210150214567</v>
+      </c>
+      <c r="T32">
+        <v>0.725377367505712</v>
+      </c>
+      <c r="U32">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V32">
+        <v>0.02633591370282868</v>
+      </c>
+      <c r="W32">
+        <v>0.1978027467594244</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1254091128706127</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1025808247366638</v>
+      </c>
+      <c r="C33">
+        <v>1262.715898888327</v>
+      </c>
+      <c r="D33">
+        <v>2162.334898888327</v>
+      </c>
+      <c r="E33">
+        <v>-683.2809999999999</v>
+      </c>
+      <c r="F33">
+        <v>1111.319</v>
+      </c>
+      <c r="G33">
+        <v>211.7</v>
+      </c>
+      <c r="H33">
+        <v>1790.3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>530.7</v>
+      </c>
+      <c r="K33">
+        <v>503.3</v>
+      </c>
+      <c r="L33">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M33">
+        <v>225.7677507259368</v>
+      </c>
+      <c r="N33">
+        <v>-198.3677507259367</v>
+      </c>
+      <c r="O33">
+        <v>-41.65722765244671</v>
+      </c>
+      <c r="P33">
+        <v>-156.71052307349</v>
+      </c>
+      <c r="Q33">
+        <v>346.58947692651</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.05972242181377098</v>
+      </c>
+      <c r="T33">
+        <v>0.7358900829768092</v>
+      </c>
+      <c r="U33">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V33">
+        <v>0.02548636809951162</v>
+      </c>
+      <c r="W33">
+        <v>0.1979753344682641</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1213636576167221</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1045193543939984</v>
+      </c>
+      <c r="C34">
+        <v>1195.212257741427</v>
+      </c>
+      <c r="D34">
+        <v>2130.680257741427</v>
+      </c>
+      <c r="E34">
+        <v>-647.432</v>
+      </c>
+      <c r="F34">
+        <v>1147.168</v>
+      </c>
+      <c r="G34">
+        <v>211.7</v>
+      </c>
+      <c r="H34">
+        <v>1790.3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>530.7</v>
+      </c>
+      <c r="K34">
+        <v>503.3</v>
+      </c>
+      <c r="L34">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M34">
+        <v>233.0505813945154</v>
+      </c>
+      <c r="N34">
+        <v>-205.6505813945153</v>
+      </c>
+      <c r="O34">
+        <v>-43.18662209284822</v>
+      </c>
+      <c r="P34">
+        <v>-162.4639593016671</v>
+      </c>
+      <c r="Q34">
+        <v>340.8360406983329</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06046392801691466</v>
+      </c>
+      <c r="T34">
+        <v>0.7467119959617623</v>
+      </c>
+      <c r="U34">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V34">
+        <v>0.02468991909640188</v>
+      </c>
+      <c r="W34">
+        <v>0.1981371354453013</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1175710433161995</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1064578840513329</v>
+      </c>
+      <c r="C35">
+        <v>1128.6220359959</v>
+      </c>
+      <c r="D35">
+        <v>2099.9390359959</v>
+      </c>
+      <c r="E35">
+        <v>-611.5830000000001</v>
+      </c>
+      <c r="F35">
+        <v>1183.017</v>
+      </c>
+      <c r="G35">
+        <v>211.7</v>
+      </c>
+      <c r="H35">
+        <v>1790.3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>530.7</v>
+      </c>
+      <c r="K35">
+        <v>503.3</v>
+      </c>
+      <c r="L35">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M35">
+        <v>240.333412063094</v>
+      </c>
+      <c r="N35">
+        <v>-212.9334120630939</v>
+      </c>
+      <c r="O35">
+        <v>-44.71601653324972</v>
+      </c>
+      <c r="P35">
+        <v>-168.2173955298442</v>
+      </c>
+      <c r="Q35">
+        <v>335.0826044701558</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06122756873358504</v>
+      </c>
+      <c r="T35">
+        <v>0.7578569511253708</v>
+      </c>
+      <c r="U35">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V35">
+        <v>0.02394173972984425</v>
+      </c>
+      <c r="W35">
+        <v>0.198289130302518</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1140082844278297</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1083964137086675</v>
+      </c>
+      <c r="C36">
+        <v>1062.906259816291</v>
+      </c>
+      <c r="D36">
+        <v>2070.072259816291</v>
+      </c>
+      <c r="E36">
+        <v>-575.7339999999999</v>
+      </c>
+      <c r="F36">
+        <v>1218.866</v>
+      </c>
+      <c r="G36">
+        <v>211.7</v>
+      </c>
+      <c r="H36">
+        <v>1790.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>530.7</v>
+      </c>
+      <c r="K36">
+        <v>503.3</v>
+      </c>
+      <c r="L36">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M36">
+        <v>247.6162427316726</v>
+      </c>
+      <c r="N36">
+        <v>-220.2162427316726</v>
+      </c>
+      <c r="O36">
+        <v>-46.24541097365124</v>
+      </c>
+      <c r="P36">
+        <v>-173.9708317580213</v>
+      </c>
+      <c r="Q36">
+        <v>329.3291682419787</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.06201435007803328</v>
+      </c>
+      <c r="T36">
+        <v>0.7693396322030278</v>
+      </c>
+      <c r="U36">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V36">
+        <v>0.0232375709142606</v>
+      </c>
+      <c r="W36">
+        <v>0.1984321842857809</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1106550995917172</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.110334943366002</v>
+      </c>
+      <c r="C37">
+        <v>998.0281415247985</v>
+      </c>
+      <c r="D37">
+        <v>2041.043141524798</v>
+      </c>
+      <c r="E37">
+        <v>-539.885</v>
+      </c>
+      <c r="F37">
+        <v>1254.715</v>
+      </c>
+      <c r="G37">
+        <v>211.7</v>
+      </c>
+      <c r="H37">
+        <v>1790.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>530.7</v>
+      </c>
+      <c r="K37">
+        <v>503.3</v>
+      </c>
+      <c r="L37">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M37">
+        <v>254.8990734002512</v>
+      </c>
+      <c r="N37">
+        <v>-227.4990734002511</v>
+      </c>
+      <c r="O37">
+        <v>-47.77480541405274</v>
+      </c>
+      <c r="P37">
+        <v>-179.7242679861984</v>
+      </c>
+      <c r="Q37">
+        <v>323.5757320138016</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.06282534007923381</v>
+      </c>
+      <c r="T37">
+        <v>0.7811756265446129</v>
+      </c>
+      <c r="U37">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V37">
+        <v>0.0225736403167103</v>
+      </c>
+      <c r="W37">
+        <v>0.1985670637557144</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.1074935253176681</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1122734730233366</v>
+      </c>
+      <c r="C38">
+        <v>933.952928436046</v>
+      </c>
+      <c r="D38">
+        <v>2012.816928436046</v>
+      </c>
+      <c r="E38">
+        <v>-504.0360000000001</v>
+      </c>
+      <c r="F38">
+        <v>1290.564</v>
+      </c>
+      <c r="G38">
+        <v>211.7</v>
+      </c>
+      <c r="H38">
+        <v>1790.3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>530.7</v>
+      </c>
+      <c r="K38">
+        <v>503.3</v>
+      </c>
+      <c r="L38">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M38">
+        <v>262.1819040688298</v>
+      </c>
+      <c r="N38">
+        <v>-234.7819040688298</v>
+      </c>
+      <c r="O38">
+        <v>-49.30419985445425</v>
+      </c>
+      <c r="P38">
+        <v>-185.4777042143755</v>
+      </c>
+      <c r="Q38">
+        <v>317.8222957856245</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06366167351797183</v>
+      </c>
+      <c r="T38">
+        <v>0.7933814957093724</v>
+      </c>
+      <c r="U38">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V38">
+        <v>0.02194659475235723</v>
+      </c>
+      <c r="W38">
+        <v>0.1986944499217627</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1045075940588439</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1142120026806711</v>
+      </c>
+      <c r="C39">
+        <v>870.6477640638184</v>
+      </c>
+      <c r="D39">
+        <v>1985.360764063818</v>
+      </c>
+      <c r="E39">
+        <v>-468.1870000000001</v>
+      </c>
+      <c r="F39">
+        <v>1326.413</v>
+      </c>
+      <c r="G39">
+        <v>211.7</v>
+      </c>
+      <c r="H39">
+        <v>1790.3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>530.7</v>
+      </c>
+      <c r="K39">
+        <v>503.3</v>
+      </c>
+      <c r="L39">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M39">
+        <v>269.4647347374084</v>
+      </c>
+      <c r="N39">
+        <v>-242.0647347374083</v>
+      </c>
+      <c r="O39">
+        <v>-50.83359429485575</v>
+      </c>
+      <c r="P39">
+        <v>-191.2311404425526</v>
+      </c>
+      <c r="Q39">
+        <v>312.0688595574474</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.0645245572246063</v>
+      </c>
+      <c r="T39">
+        <v>0.8059748527841244</v>
+      </c>
+      <c r="U39">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V39">
+        <v>0.02135344354283407</v>
+      </c>
+      <c r="W39">
+        <v>0.1988149503491057</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.101683064489686</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1161505323380056</v>
+      </c>
+      <c r="C40">
+        <v>808.0815605343248</v>
+      </c>
+      <c r="D40">
+        <v>1958.643560534325</v>
+      </c>
+      <c r="E40">
+        <v>-432.338</v>
+      </c>
+      <c r="F40">
+        <v>1362.262</v>
+      </c>
+      <c r="G40">
+        <v>211.7</v>
+      </c>
+      <c r="H40">
+        <v>1790.3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>530.7</v>
+      </c>
+      <c r="K40">
+        <v>503.3</v>
+      </c>
+      <c r="L40">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M40">
+        <v>276.747565405987</v>
+      </c>
+      <c r="N40">
+        <v>-249.347565405987</v>
+      </c>
+      <c r="O40">
+        <v>-52.36298873525727</v>
+      </c>
+      <c r="P40">
+        <v>-196.9845766707297</v>
+      </c>
+      <c r="Q40">
+        <v>306.3154233292703</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.0654152758895193</v>
+      </c>
+      <c r="T40">
+        <v>0.8189744471838682</v>
+      </c>
+      <c r="U40">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V40">
+        <v>0.02079151081802264</v>
+      </c>
+      <c r="W40">
+        <v>0.1989291086486939</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.09900719437153638</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1180890619953402</v>
+      </c>
+      <c r="C41">
+        <v>746.2248811643649</v>
+      </c>
+      <c r="D41">
+        <v>1932.635881164365</v>
+      </c>
+      <c r="E41">
+        <v>-396.489</v>
+      </c>
+      <c r="F41">
+        <v>1398.111</v>
+      </c>
+      <c r="G41">
+        <v>211.7</v>
+      </c>
+      <c r="H41">
+        <v>1790.3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>530.7</v>
+      </c>
+      <c r="K41">
+        <v>503.3</v>
+      </c>
+      <c r="L41">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M41">
+        <v>284.0303960745656</v>
+      </c>
+      <c r="N41">
+        <v>-256.6303960745656</v>
+      </c>
+      <c r="O41">
+        <v>-53.89238317565876</v>
+      </c>
+      <c r="P41">
+        <v>-202.7380128989068</v>
+      </c>
+      <c r="Q41">
+        <v>300.5619871010932</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.0663351984450852</v>
+      </c>
+      <c r="T41">
+        <v>0.83240025779344</v>
+      </c>
+      <c r="U41">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V41">
+        <v>0.02025839515602206</v>
+      </c>
+      <c r="W41">
+        <v>0.1990374126765083</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.0964685483620098</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1200275916526747</v>
+      </c>
+      <c r="C42">
+        <v>685.0498322719523</v>
+      </c>
+      <c r="D42">
+        <v>1907.309832271952</v>
+      </c>
+      <c r="E42">
+        <v>-360.6399999999999</v>
+      </c>
+      <c r="F42">
+        <v>1433.96</v>
+      </c>
+      <c r="G42">
+        <v>211.7</v>
+      </c>
+      <c r="H42">
+        <v>1790.3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>530.7</v>
+      </c>
+      <c r="K42">
+        <v>503.3</v>
+      </c>
+      <c r="L42">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M42">
+        <v>291.3132267431442</v>
+      </c>
+      <c r="N42">
+        <v>-263.9132267431442</v>
+      </c>
+      <c r="O42">
+        <v>-55.42177761606028</v>
+      </c>
+      <c r="P42">
+        <v>-208.4914491270839</v>
+      </c>
+      <c r="Q42">
+        <v>294.8085508729161</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.06728578508583662</v>
+      </c>
+      <c r="T42">
+        <v>0.8462735954233306</v>
+      </c>
+      <c r="U42">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V42">
+        <v>0.0197519352771215</v>
+      </c>
+      <c r="W42">
+        <v>0.1991403015029319</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.09405683465295955</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1219661213100093</v>
+      </c>
+      <c r="C43">
+        <v>624.5299633834559</v>
+      </c>
+      <c r="D43">
+        <v>1882.638963383456</v>
+      </c>
+      <c r="E43">
+        <v>-324.7909999999999</v>
+      </c>
+      <c r="F43">
+        <v>1469.809</v>
+      </c>
+      <c r="G43">
+        <v>211.7</v>
+      </c>
+      <c r="H43">
+        <v>1790.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>530.7</v>
+      </c>
+      <c r="K43">
+        <v>503.3</v>
+      </c>
+      <c r="L43">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M43">
+        <v>298.5960574117228</v>
+      </c>
+      <c r="N43">
+        <v>-271.1960574117228</v>
+      </c>
+      <c r="O43">
+        <v>-56.95117205646179</v>
+      </c>
+      <c r="P43">
+        <v>-214.244885355261</v>
+      </c>
+      <c r="Q43">
+        <v>289.055114644739</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.06826859500254572</v>
+      </c>
+      <c r="T43">
+        <v>0.860617215684743</v>
+      </c>
+      <c r="U43">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V43">
+        <v>0.01927018075816733</v>
+      </c>
+      <c r="W43">
+        <v>0.1992381713622129</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.09176276551508256</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1239046509673438</v>
+      </c>
+      <c r="C44">
+        <v>564.6401750867039</v>
+      </c>
+      <c r="D44">
+        <v>1858.598175086704</v>
+      </c>
+      <c r="E44">
+        <v>-288.942</v>
+      </c>
+      <c r="F44">
+        <v>1505.658</v>
+      </c>
+      <c r="G44">
+        <v>211.7</v>
+      </c>
+      <c r="H44">
+        <v>1790.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>530.7</v>
+      </c>
+      <c r="K44">
+        <v>503.3</v>
+      </c>
+      <c r="L44">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M44">
+        <v>305.8788880803014</v>
+      </c>
+      <c r="N44">
+        <v>-278.4788880803014</v>
+      </c>
+      <c r="O44">
+        <v>-58.48056649686329</v>
+      </c>
+      <c r="P44">
+        <v>-219.9983215834381</v>
+      </c>
+      <c r="Q44">
+        <v>283.3016784165619</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.06928529491638272</v>
+      </c>
+      <c r="T44">
+        <v>0.8754554435413765</v>
+      </c>
+      <c r="U44">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V44">
+        <v>0.01881136693059192</v>
+      </c>
+      <c r="W44">
+        <v>0.1993313807520044</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.08957793776472345</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1258431806246784</v>
+      </c>
+      <c r="C45">
+        <v>505.3566338552191</v>
+      </c>
+      <c r="D45">
+        <v>1835.163633855219</v>
+      </c>
+      <c r="E45">
+        <v>-253.0930000000001</v>
+      </c>
+      <c r="F45">
+        <v>1541.507</v>
+      </c>
+      <c r="G45">
+        <v>211.7</v>
+      </c>
+      <c r="H45">
+        <v>1790.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>530.7</v>
+      </c>
+      <c r="K45">
+        <v>503.3</v>
+      </c>
+      <c r="L45">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M45">
+        <v>313.16171874888</v>
+      </c>
+      <c r="N45">
+        <v>-285.76171874888</v>
+      </c>
+      <c r="O45">
+        <v>-60.00996093726479</v>
+      </c>
+      <c r="P45">
+        <v>-225.7517578116152</v>
+      </c>
+      <c r="Q45">
+        <v>277.5482421883848</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.07033766851140696</v>
+      </c>
+      <c r="T45">
+        <v>0.8908143109719269</v>
+      </c>
+      <c r="U45">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V45">
+        <v>0.01837389328104327</v>
+      </c>
+      <c r="W45">
+        <v>0.1994202548213405</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.08749472990972984</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1277817102820129</v>
+      </c>
+      <c r="C46">
+        <v>446.6566932359531</v>
+      </c>
+      <c r="D46">
+        <v>1812.312693235953</v>
+      </c>
+      <c r="E46">
+        <v>-217.2440000000001</v>
+      </c>
+      <c r="F46">
+        <v>1577.356</v>
+      </c>
+      <c r="G46">
+        <v>211.7</v>
+      </c>
+      <c r="H46">
+        <v>1790.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>530.7</v>
+      </c>
+      <c r="K46">
+        <v>503.3</v>
+      </c>
+      <c r="L46">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M46">
+        <v>320.4445494174586</v>
+      </c>
+      <c r="N46">
+        <v>-293.0445494174586</v>
+      </c>
+      <c r="O46">
+        <v>-61.5393553776663</v>
+      </c>
+      <c r="P46">
+        <v>-231.5051940397923</v>
+      </c>
+      <c r="Q46">
+        <v>271.7948059602077</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.07142762687768209</v>
+      </c>
+      <c r="T46">
+        <v>0.9067217093821399</v>
+      </c>
+      <c r="U46">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V46">
+        <v>0.01795630479738319</v>
+      </c>
+      <c r="W46">
+        <v>0.1995050891602521</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.08550621332087238</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1297202399393474</v>
+      </c>
+      <c r="C47">
+        <v>388.5188208527045</v>
+      </c>
+      <c r="D47">
+        <v>1790.023820852704</v>
+      </c>
+      <c r="E47">
+        <v>-181.395</v>
+      </c>
+      <c r="F47">
+        <v>1613.205</v>
+      </c>
+      <c r="G47">
+        <v>211.7</v>
+      </c>
+      <c r="H47">
+        <v>1790.3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>530.7</v>
+      </c>
+      <c r="K47">
+        <v>503.3</v>
+      </c>
+      <c r="L47">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M47">
+        <v>327.7273800860373</v>
+      </c>
+      <c r="N47">
+        <v>-300.3273800860372</v>
+      </c>
+      <c r="O47">
+        <v>-63.06874981806781</v>
+      </c>
+      <c r="P47">
+        <v>-237.2586302679694</v>
+      </c>
+      <c r="Q47">
+        <v>266.0413697320306</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.07255722009363995</v>
+      </c>
+      <c r="T47">
+        <v>0.9232075586436334</v>
+      </c>
+      <c r="U47">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V47">
+        <v>0.01755727580188578</v>
+      </c>
+      <c r="W47">
+        <v>0.199586153084101</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.0836060752470752</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.131658769596682</v>
+      </c>
+      <c r="C48">
+        <v>330.9225307306147</v>
+      </c>
+      <c r="D48">
+        <v>1768.276530730614</v>
+      </c>
+      <c r="E48">
+        <v>-145.546</v>
+      </c>
+      <c r="F48">
+        <v>1649.054</v>
+      </c>
+      <c r="G48">
+        <v>211.7</v>
+      </c>
+      <c r="H48">
+        <v>1790.3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>530.7</v>
+      </c>
+      <c r="K48">
+        <v>503.3</v>
+      </c>
+      <c r="L48">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M48">
+        <v>335.0102107546159</v>
+      </c>
+      <c r="N48">
+        <v>-307.6102107546158</v>
+      </c>
+      <c r="O48">
+        <v>-64.59814425846932</v>
+      </c>
+      <c r="P48">
+        <v>-243.0120664961465</v>
+      </c>
+      <c r="Q48">
+        <v>260.2879335038535</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.07372865009537403</v>
+      </c>
+      <c r="T48">
+        <v>0.9403039949148119</v>
+      </c>
+      <c r="U48">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V48">
+        <v>0.01717559589314914</v>
+      </c>
+      <c r="W48">
+        <v>0.1996636924895218</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.08178855187213874</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1335972992540165</v>
+      </c>
+      <c r="C49">
+        <v>273.8483204946544</v>
+      </c>
+      <c r="D49">
+        <v>1747.051320494654</v>
+      </c>
+      <c r="E49">
+        <v>-109.6969999999999</v>
+      </c>
+      <c r="F49">
+        <v>1684.903</v>
+      </c>
+      <c r="G49">
+        <v>211.7</v>
+      </c>
+      <c r="H49">
+        <v>1790.3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>530.7</v>
+      </c>
+      <c r="K49">
+        <v>503.3</v>
+      </c>
+      <c r="L49">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M49">
+        <v>342.2930414231945</v>
+      </c>
+      <c r="N49">
+        <v>-314.8930414231945</v>
+      </c>
+      <c r="O49">
+        <v>-66.12753869887084</v>
+      </c>
+      <c r="P49">
+        <v>-248.7655027243236</v>
+      </c>
+      <c r="Q49">
+        <v>254.5344972756764</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.07494428500283391</v>
+      </c>
+      <c r="T49">
+        <v>0.9580455797245253</v>
+      </c>
+      <c r="U49">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V49">
+        <v>0.0168101576826566</v>
+      </c>
+      <c r="W49">
+        <v>0.1997379323457757</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.08004836991741238</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1355358289113511</v>
+      </c>
+      <c r="C50">
+        <v>217.2776130374252</v>
+      </c>
+      <c r="D50">
+        <v>1726.329613037425</v>
+      </c>
+      <c r="E50">
+        <v>-73.84800000000018</v>
+      </c>
+      <c r="F50">
+        <v>1720.752</v>
+      </c>
+      <c r="G50">
+        <v>211.7</v>
+      </c>
+      <c r="H50">
+        <v>1790.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>530.7</v>
+      </c>
+      <c r="K50">
+        <v>503.3</v>
+      </c>
+      <c r="L50">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M50">
+        <v>349.575872091773</v>
+      </c>
+      <c r="N50">
+        <v>-322.175872091773</v>
+      </c>
+      <c r="O50">
+        <v>-67.65693313927233</v>
+      </c>
+      <c r="P50">
+        <v>-254.5189389525007</v>
+      </c>
+      <c r="Q50">
+        <v>248.7810610474993</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.07620667509904226</v>
+      </c>
+      <c r="T50">
+        <v>0.9764695331807661</v>
+      </c>
+      <c r="U50">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V50">
+        <v>0.01645994606426792</v>
+      </c>
+      <c r="W50">
+        <v>0.1998090788746856</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.07838069554413296</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1374743585686856</v>
+      </c>
+      <c r="C51">
+        <v>161.1927022895622</v>
+      </c>
+      <c r="D51">
+        <v>1706.093702289562</v>
+      </c>
+      <c r="E51">
+        <v>-37.99900000000002</v>
+      </c>
+      <c r="F51">
+        <v>1756.601</v>
+      </c>
+      <c r="G51">
+        <v>211.7</v>
+      </c>
+      <c r="H51">
+        <v>1790.3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>530.7</v>
+      </c>
+      <c r="K51">
+        <v>503.3</v>
+      </c>
+      <c r="L51">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M51">
+        <v>356.8587027603517</v>
+      </c>
+      <c r="N51">
+        <v>-329.4587027603516</v>
+      </c>
+      <c r="O51">
+        <v>-69.18632757967384</v>
+      </c>
+      <c r="P51">
+        <v>-260.2723751806778</v>
+      </c>
+      <c r="Q51">
+        <v>243.0276248193222</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.07751857068921955</v>
+      </c>
+      <c r="T51">
+        <v>0.9956159946156831</v>
+      </c>
+      <c r="U51">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V51">
+        <v>0.01612402879765021</v>
+      </c>
+      <c r="W51">
+        <v>0.1998773214636401</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.07678108951262008</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1394128882260202</v>
+      </c>
+      <c r="C52">
+        <v>105.576702759995</v>
+      </c>
+      <c r="D52">
+        <v>1686.326702759995</v>
+      </c>
+      <c r="E52">
+        <v>-2.150000000000091</v>
+      </c>
+      <c r="F52">
+        <v>1792.45</v>
+      </c>
+      <c r="G52">
+        <v>211.7</v>
+      </c>
+      <c r="H52">
+        <v>1790.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>530.7</v>
+      </c>
+      <c r="K52">
+        <v>503.3</v>
+      </c>
+      <c r="L52">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M52">
+        <v>364.1415334289302</v>
+      </c>
+      <c r="N52">
+        <v>-336.7415334289302</v>
+      </c>
+      <c r="O52">
+        <v>-70.71572202007535</v>
+      </c>
+      <c r="P52">
+        <v>-266.0258114088548</v>
+      </c>
+      <c r="Q52">
+        <v>237.2741885911452</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.07888294210300395</v>
+      </c>
+      <c r="T52">
+        <v>1.015528314507997</v>
+      </c>
+      <c r="U52">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V52">
+        <v>0.01580154822169721</v>
+      </c>
+      <c r="W52">
+        <v>0.1999428343490364</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.07524546772236762</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1413514178833547</v>
+      </c>
+      <c r="C53">
+        <v>50.41350254382519</v>
+      </c>
+      <c r="D53">
+        <v>1667.012502543825</v>
+      </c>
+      <c r="E53">
+        <v>33.69899999999984</v>
+      </c>
+      <c r="F53">
+        <v>1828.299</v>
+      </c>
+      <c r="G53">
+        <v>211.7</v>
+      </c>
+      <c r="H53">
+        <v>1790.3</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>530.7</v>
+      </c>
+      <c r="K53">
+        <v>503.3</v>
+      </c>
+      <c r="L53">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M53">
+        <v>371.4243640975088</v>
+      </c>
+      <c r="N53">
+        <v>-344.0243640975088</v>
+      </c>
+      <c r="O53">
+        <v>-72.24511646047685</v>
+      </c>
+      <c r="P53">
+        <v>-271.779247637032</v>
+      </c>
+      <c r="Q53">
+        <v>231.520752362968</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.08030300214592238</v>
+      </c>
+      <c r="T53">
+        <v>1.036253382151017</v>
+      </c>
+      <c r="U53">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V53">
+        <v>0.0154917139428404</v>
+      </c>
+      <c r="W53">
+        <v>0.200005778101672</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.07377006639447814</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1432899475406892</v>
+      </c>
+      <c r="C54">
+        <v>-4.312280477037575</v>
+      </c>
+      <c r="D54">
+        <v>1648.135719522962</v>
+      </c>
+      <c r="E54">
+        <v>69.548</v>
+      </c>
+      <c r="F54">
+        <v>1864.148</v>
+      </c>
+      <c r="G54">
+        <v>211.7</v>
+      </c>
+      <c r="H54">
+        <v>1790.3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>530.7</v>
+      </c>
+      <c r="K54">
+        <v>503.3</v>
+      </c>
+      <c r="L54">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M54">
+        <v>378.7071947660875</v>
+      </c>
+      <c r="N54">
+        <v>-351.3071947660874</v>
+      </c>
+      <c r="O54">
+        <v>-73.77451090087835</v>
+      </c>
+      <c r="P54">
+        <v>-277.5326838652091</v>
+      </c>
+      <c r="Q54">
+        <v>225.7673161347909</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.08178223135729577</v>
+      </c>
+      <c r="T54">
+        <v>1.057841994279163</v>
+      </c>
+      <c r="U54">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V54">
+        <v>0.01519379636701655</v>
+      </c>
+      <c r="W54">
+        <v>0.2000663009407448</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.07235141127150735</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1452284771980238</v>
+      </c>
+      <c r="C55">
+        <v>-58.6153394907335</v>
+      </c>
+      <c r="D55">
+        <v>1629.681660509266</v>
+      </c>
+      <c r="E55">
+        <v>105.3969999999999</v>
+      </c>
+      <c r="F55">
+        <v>1899.997</v>
+      </c>
+      <c r="G55">
+        <v>211.7</v>
+      </c>
+      <c r="H55">
+        <v>1790.3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>530.7</v>
+      </c>
+      <c r="K55">
+        <v>503.3</v>
+      </c>
+      <c r="L55">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M55">
+        <v>385.9900254346661</v>
+      </c>
+      <c r="N55">
+        <v>-358.590025434666</v>
+      </c>
+      <c r="O55">
+        <v>-75.30390534127986</v>
+      </c>
+      <c r="P55">
+        <v>-283.2861200933862</v>
+      </c>
+      <c r="Q55">
+        <v>220.0138799066139</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.0833244064925574</v>
+      </c>
+      <c r="T55">
+        <v>1.080349270753188</v>
+      </c>
+      <c r="U55">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V55">
+        <v>0.01490712096386529</v>
+      </c>
+      <c r="W55">
+        <v>0.2001245398990978</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.0709862903041204</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1471670068553584</v>
+      </c>
+      <c r="C56">
+        <v>-112.5097168978743</v>
+      </c>
+      <c r="D56">
+        <v>1611.636283102126</v>
+      </c>
+      <c r="E56">
+        <v>141.2460000000001</v>
+      </c>
+      <c r="F56">
+        <v>1935.846</v>
+      </c>
+      <c r="G56">
+        <v>211.7</v>
+      </c>
+      <c r="H56">
+        <v>1790.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>530.7</v>
+      </c>
+      <c r="K56">
+        <v>503.3</v>
+      </c>
+      <c r="L56">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M56">
+        <v>393.2728561032447</v>
+      </c>
+      <c r="N56">
+        <v>-365.8728561032447</v>
+      </c>
+      <c r="O56">
+        <v>-76.83329978168138</v>
+      </c>
+      <c r="P56">
+        <v>-289.0395563215633</v>
+      </c>
+      <c r="Q56">
+        <v>214.2604436784367</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.08493363272065646</v>
+      </c>
+      <c r="T56">
+        <v>1.103835124465214</v>
+      </c>
+      <c r="U56">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V56">
+        <v>0.01463106316823815</v>
+      </c>
+      <c r="W56">
+        <v>0.2001806218589933</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.06967172937256261</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1491055365126929</v>
+      </c>
+      <c r="C57">
+        <v>-166.0088399476201</v>
+      </c>
+      <c r="D57">
+        <v>1593.98616005238</v>
+      </c>
+      <c r="E57">
+        <v>177.095</v>
+      </c>
+      <c r="F57">
+        <v>1971.695</v>
+      </c>
+      <c r="G57">
+        <v>211.7</v>
+      </c>
+      <c r="H57">
+        <v>1790.3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>530.7</v>
+      </c>
+      <c r="K57">
+        <v>503.3</v>
+      </c>
+      <c r="L57">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M57">
+        <v>400.5556867718233</v>
+      </c>
+      <c r="N57">
+        <v>-373.1556867718233</v>
+      </c>
+      <c r="O57">
+        <v>-78.36269422208289</v>
+      </c>
+      <c r="P57">
+        <v>-294.7929925497404</v>
+      </c>
+      <c r="Q57">
+        <v>208.5070074502596</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.08661438011444884</v>
+      </c>
+      <c r="T57">
+        <v>1.128364793897774</v>
+      </c>
+      <c r="U57">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V57">
+        <v>0.01436504383790655</v>
+      </c>
+      <c r="W57">
+        <v>0.2002346644748925</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.06840497065669782</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1510440661700274</v>
+      </c>
+      <c r="C58">
+        <v>-219.1255540574837</v>
+      </c>
+      <c r="D58">
+        <v>1576.718445942516</v>
+      </c>
+      <c r="E58">
+        <v>212.9440000000002</v>
+      </c>
+      <c r="F58">
+        <v>2007.544</v>
+      </c>
+      <c r="G58">
+        <v>211.7</v>
+      </c>
+      <c r="H58">
+        <v>1790.3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>530.7</v>
+      </c>
+      <c r="K58">
+        <v>503.3</v>
+      </c>
+      <c r="L58">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M58">
+        <v>407.8385174404019</v>
+      </c>
+      <c r="N58">
+        <v>-380.4385174404019</v>
+      </c>
+      <c r="O58">
+        <v>-79.8920886624844</v>
+      </c>
+      <c r="P58">
+        <v>-300.5464287779175</v>
+      </c>
+      <c r="Q58">
+        <v>202.7535712220825</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.08837152511704995</v>
+      </c>
+      <c r="T58">
+        <v>1.154009448304542</v>
+      </c>
+      <c r="U58">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V58">
+        <v>0.01410852519794393</v>
+      </c>
+      <c r="W58">
+        <v>0.2002867769973669</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.06718345332354259</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.152982595827362</v>
+      </c>
+      <c r="C59">
+        <v>-271.8721539906037</v>
+      </c>
+      <c r="D59">
+        <v>1559.820846009396</v>
+      </c>
+      <c r="E59">
+        <v>248.7930000000001</v>
+      </c>
+      <c r="F59">
+        <v>2043.393</v>
+      </c>
+      <c r="G59">
+        <v>211.7</v>
+      </c>
+      <c r="H59">
+        <v>1790.3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>530.7</v>
+      </c>
+      <c r="K59">
+        <v>503.3</v>
+      </c>
+      <c r="L59">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M59">
+        <v>415.1213481089806</v>
+      </c>
+      <c r="N59">
+        <v>-387.7213481089805</v>
+      </c>
+      <c r="O59">
+        <v>-81.4214831028859</v>
+      </c>
+      <c r="P59">
+        <v>-306.2998650060946</v>
+      </c>
+      <c r="Q59">
+        <v>197.0001349939054</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.09021039779419066</v>
+      </c>
+      <c r="T59">
+        <v>1.18084687733488</v>
+      </c>
+      <c r="U59">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V59">
+        <v>0.01386100721201509</v>
+      </c>
+      <c r="W59">
+        <v>0.2003370610102807</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.06600479624769096</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1549211254846965</v>
+      </c>
+      <c r="C60">
+        <v>-324.2604130495347</v>
+      </c>
+      <c r="D60">
+        <v>1543.281586950465</v>
+      </c>
+      <c r="E60">
+        <v>284.6419999999998</v>
+      </c>
+      <c r="F60">
+        <v>2079.242</v>
+      </c>
+      <c r="G60">
+        <v>211.7</v>
+      </c>
+      <c r="H60">
+        <v>1790.3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>530.7</v>
+      </c>
+      <c r="K60">
+        <v>503.3</v>
+      </c>
+      <c r="L60">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M60">
+        <v>422.4041787775591</v>
+      </c>
+      <c r="N60">
+        <v>-395.004178777559</v>
+      </c>
+      <c r="O60">
+        <v>-82.95087754328739</v>
+      </c>
+      <c r="P60">
+        <v>-312.0533012342717</v>
+      </c>
+      <c r="Q60">
+        <v>191.2466987657284</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.09213683583690944</v>
+      </c>
+      <c r="T60">
+        <v>1.208962279176186</v>
+      </c>
+      <c r="U60">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V60">
+        <v>0.01362202432904932</v>
+      </c>
+      <c r="W60">
+        <v>0.2003856110917147</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.06486678251928246</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.156859655142031</v>
+      </c>
+      <c r="C61">
+        <v>-376.3016104322171</v>
+      </c>
+      <c r="D61">
+        <v>1527.089389567783</v>
+      </c>
+      <c r="E61">
+        <v>320.491</v>
+      </c>
+      <c r="F61">
+        <v>2115.091</v>
+      </c>
+      <c r="G61">
+        <v>211.7</v>
+      </c>
+      <c r="H61">
+        <v>1790.3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>530.7</v>
+      </c>
+      <c r="K61">
+        <v>503.3</v>
+      </c>
+      <c r="L61">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M61">
+        <v>429.6870094461377</v>
+      </c>
+      <c r="N61">
+        <v>-402.2870094461377</v>
+      </c>
+      <c r="O61">
+        <v>-84.48027198368891</v>
+      </c>
+      <c r="P61">
+        <v>-317.8067374624488</v>
+      </c>
+      <c r="Q61">
+        <v>185.4932625375512</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.09415724646707797</v>
+      </c>
+      <c r="T61">
+        <v>1.238449164034142</v>
+      </c>
+      <c r="U61">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V61">
+        <v>0.01339114256076034</v>
+      </c>
+      <c r="W61">
+        <v>0.2004325154076764</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.06376734552743024</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1587981847993656</v>
+      </c>
+      <c r="C62">
+        <v>-428.0065568837024</v>
+      </c>
+      <c r="D62">
+        <v>1511.233443116297</v>
+      </c>
+      <c r="E62">
+        <v>356.3399999999997</v>
+      </c>
+      <c r="F62">
+        <v>2150.94</v>
+      </c>
+      <c r="G62">
+        <v>211.7</v>
+      </c>
+      <c r="H62">
+        <v>1790.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>530.7</v>
+      </c>
+      <c r="K62">
+        <v>503.3</v>
+      </c>
+      <c r="L62">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M62">
+        <v>436.9698401147162</v>
+      </c>
+      <c r="N62">
+        <v>-409.5698401147162</v>
+      </c>
+      <c r="O62">
+        <v>-86.0096664240904</v>
+      </c>
+      <c r="P62">
+        <v>-323.5601736906258</v>
+      </c>
+      <c r="Q62">
+        <v>179.7398263093742</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.09627867762875493</v>
+      </c>
+      <c r="T62">
+        <v>1.269410393134996</v>
+      </c>
+      <c r="U62">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V62">
+        <v>0.01316795685141434</v>
+      </c>
+      <c r="W62">
+        <v>0.2004778562464394</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.06270455643530637</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1607367144567002</v>
+      </c>
+      <c r="C63">
+        <v>-479.3856187662368</v>
+      </c>
+      <c r="D63">
+        <v>1495.703381233763</v>
+      </c>
+      <c r="E63">
+        <v>392.1889999999999</v>
+      </c>
+      <c r="F63">
+        <v>2186.789</v>
+      </c>
+      <c r="G63">
+        <v>211.7</v>
+      </c>
+      <c r="H63">
+        <v>1790.3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>530.7</v>
+      </c>
+      <c r="K63">
+        <v>503.3</v>
+      </c>
+      <c r="L63">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M63">
+        <v>444.2526707832949</v>
+      </c>
+      <c r="N63">
+        <v>-416.8526707832949</v>
+      </c>
+      <c r="O63">
+        <v>-87.53906086449192</v>
+      </c>
+      <c r="P63">
+        <v>-329.313609918803</v>
+      </c>
+      <c r="Q63">
+        <v>173.986390081197</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.09850890013205635</v>
+      </c>
+      <c r="T63">
+        <v>1.301959377574355</v>
+      </c>
+      <c r="U63">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V63">
+        <v>0.01295208870630919</v>
+      </c>
+      <c r="W63">
+        <v>0.2005217105003249</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.06167661288718662</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1626752441140347</v>
+      </c>
+      <c r="C64">
+        <v>-530.4487406603109</v>
+      </c>
+      <c r="D64">
+        <v>1480.489259339689</v>
+      </c>
+      <c r="E64">
+        <v>428.038</v>
+      </c>
+      <c r="F64">
+        <v>2222.638</v>
+      </c>
+      <c r="G64">
+        <v>211.7</v>
+      </c>
+      <c r="H64">
+        <v>1790.3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>530.7</v>
+      </c>
+      <c r="K64">
+        <v>503.3</v>
+      </c>
+      <c r="L64">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M64">
+        <v>451.5355014518735</v>
+      </c>
+      <c r="N64">
+        <v>-424.1355014518735</v>
+      </c>
+      <c r="O64">
+        <v>-89.06845530489343</v>
+      </c>
+      <c r="P64">
+        <v>-335.06704614698</v>
+      </c>
+      <c r="Q64">
+        <v>168.23295385302</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1008565027671105</v>
+      </c>
+      <c r="T64">
+        <v>1.33622146645789</v>
+      </c>
+      <c r="U64">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V64">
+        <v>0.01274318404975581</v>
+      </c>
+      <c r="W64">
+        <v>0.2005641501008592</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.06068182880836104</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1646137737713693</v>
+      </c>
+      <c r="C65">
+        <v>-581.2054666002323</v>
+      </c>
+      <c r="D65">
+        <v>1465.581533399767</v>
+      </c>
+      <c r="E65">
+        <v>463.8869999999997</v>
+      </c>
+      <c r="F65">
+        <v>2258.487</v>
+      </c>
+      <c r="G65">
+        <v>211.7</v>
+      </c>
+      <c r="H65">
+        <v>1790.3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>530.7</v>
+      </c>
+      <c r="K65">
+        <v>503.3</v>
+      </c>
+      <c r="L65">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M65">
+        <v>458.8183321204521</v>
+      </c>
+      <c r="N65">
+        <v>-431.4183321204521</v>
+      </c>
+      <c r="O65">
+        <v>-90.59784974529494</v>
+      </c>
+      <c r="P65">
+        <v>-340.8204823751572</v>
+      </c>
+      <c r="Q65">
+        <v>162.4795176248429</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1033310028418972</v>
+      </c>
+      <c r="T65">
+        <v>1.372335560145941</v>
+      </c>
+      <c r="U65">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V65">
+        <v>0.01254091128706128</v>
+      </c>
+      <c r="W65">
+        <v>0.2006052424124877</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.0597186251764823</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1665523034287038</v>
+      </c>
+      <c r="C66">
+        <v>-631.664960039504</v>
+      </c>
+      <c r="D66">
+        <v>1450.971039960496</v>
+      </c>
+      <c r="E66">
+        <v>499.7359999999999</v>
+      </c>
+      <c r="F66">
+        <v>2294.336</v>
+      </c>
+      <c r="G66">
+        <v>211.7</v>
+      </c>
+      <c r="H66">
+        <v>1790.3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>530.7</v>
+      </c>
+      <c r="K66">
+        <v>503.3</v>
+      </c>
+      <c r="L66">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M66">
+        <v>466.1011627890308</v>
+      </c>
+      <c r="N66">
+        <v>-438.7011627890307</v>
+      </c>
+      <c r="O66">
+        <v>-92.12724418569644</v>
+      </c>
+      <c r="P66">
+        <v>-346.5739186033343</v>
+      </c>
+      <c r="Q66">
+        <v>156.7260813966657</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.105942975143061</v>
+      </c>
+      <c r="T66">
+        <v>1.410455992372218</v>
+      </c>
+      <c r="U66">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V66">
+        <v>0.01234495954820094</v>
+      </c>
+      <c r="W66">
+        <v>0.2006450505893778</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.05878552165809969</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1684908330860383</v>
+      </c>
+      <c r="C67">
+        <v>-681.8360226337661</v>
+      </c>
+      <c r="D67">
+        <v>1436.648977366234</v>
+      </c>
+      <c r="E67">
+        <v>535.585</v>
+      </c>
+      <c r="F67">
+        <v>2330.185</v>
+      </c>
+      <c r="G67">
+        <v>211.7</v>
+      </c>
+      <c r="H67">
+        <v>1790.3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>530.7</v>
+      </c>
+      <c r="K67">
+        <v>503.3</v>
+      </c>
+      <c r="L67">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M67">
+        <v>473.3839934576093</v>
+      </c>
+      <c r="N67">
+        <v>-445.9839934576093</v>
+      </c>
+      <c r="O67">
+        <v>-93.65663862609794</v>
+      </c>
+      <c r="P67">
+        <v>-352.3273548315113</v>
+      </c>
+      <c r="Q67">
+        <v>150.9726451684887</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1087042030042914</v>
+      </c>
+      <c r="T67">
+        <v>1.450754735011424</v>
+      </c>
+      <c r="U67">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V67">
+        <v>0.01215503709361324</v>
+      </c>
+      <c r="W67">
+        <v>0.2006836338992867</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.05788112901720588</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1704293627433729</v>
+      </c>
+      <c r="C68">
+        <v>-731.7271119222141</v>
+      </c>
+      <c r="D68">
+        <v>1422.606888077785</v>
+      </c>
+      <c r="E68">
+        <v>571.4339999999997</v>
+      </c>
+      <c r="F68">
+        <v>2366.034</v>
+      </c>
+      <c r="G68">
+        <v>211.7</v>
+      </c>
+      <c r="H68">
+        <v>1790.3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>530.7</v>
+      </c>
+      <c r="K68">
+        <v>503.3</v>
+      </c>
+      <c r="L68">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M68">
+        <v>480.6668241261879</v>
+      </c>
+      <c r="N68">
+        <v>-453.2668241261879</v>
+      </c>
+      <c r="O68">
+        <v>-95.18603306649945</v>
+      </c>
+      <c r="P68">
+        <v>-358.0807910596884</v>
+      </c>
+      <c r="Q68">
+        <v>145.2192089403116</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1116278560338293</v>
+      </c>
+      <c r="T68">
+        <v>1.493423991923525</v>
+      </c>
+      <c r="U68">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V68">
+        <v>0.01197086986492213</v>
+      </c>
+      <c r="W68">
+        <v>0.2007210480179862</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.05700414221391492</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1723678924007074</v>
+      </c>
+      <c r="C69">
+        <v>-781.3463579821255</v>
+      </c>
+      <c r="D69">
+        <v>1408.836642017874</v>
+      </c>
+      <c r="E69">
+        <v>607.2829999999999</v>
+      </c>
+      <c r="F69">
+        <v>2401.883</v>
+      </c>
+      <c r="G69">
+        <v>211.7</v>
+      </c>
+      <c r="H69">
+        <v>1790.3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>530.7</v>
+      </c>
+      <c r="K69">
+        <v>503.3</v>
+      </c>
+      <c r="L69">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M69">
+        <v>487.9496547947666</v>
+      </c>
+      <c r="N69">
+        <v>-460.5496547947665</v>
+      </c>
+      <c r="O69">
+        <v>-96.71542750690097</v>
+      </c>
+      <c r="P69">
+        <v>-363.8342272878656</v>
+      </c>
+      <c r="Q69">
+        <v>139.4657727121344</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1147287001560666</v>
+      </c>
+      <c r="T69">
+        <v>1.538679264406056</v>
+      </c>
+      <c r="U69">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V69">
+        <v>0.01179220016544568</v>
+      </c>
+      <c r="W69">
+        <v>0.2007573452973216</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.05615333412116985</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1743064220580419</v>
+      </c>
+      <c r="C70">
+        <v>-830.7015791253991</v>
+      </c>
+      <c r="D70">
+        <v>1395.330420874601</v>
+      </c>
+      <c r="E70">
+        <v>643.1320000000001</v>
+      </c>
+      <c r="F70">
+        <v>2437.732</v>
+      </c>
+      <c r="G70">
+        <v>211.7</v>
+      </c>
+      <c r="H70">
+        <v>1790.3</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>530.7</v>
+      </c>
+      <c r="K70">
+        <v>503.3</v>
+      </c>
+      <c r="L70">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M70">
+        <v>495.2324854633452</v>
+      </c>
+      <c r="N70">
+        <v>-467.8324854633452</v>
+      </c>
+      <c r="O70">
+        <v>-98.24482194730248</v>
+      </c>
+      <c r="P70">
+        <v>-369.5876635160427</v>
+      </c>
+      <c r="Q70">
+        <v>133.7123364839574</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1180233470359437</v>
+      </c>
+      <c r="T70">
+        <v>1.586762991418745</v>
+      </c>
+      <c r="U70">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V70">
+        <v>0.0116187854571303</v>
+      </c>
+      <c r="W70">
+        <v>0.2007925750096176</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.05532754979585852</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1762449517153765</v>
+      </c>
+      <c r="C71">
+        <v>-879.8002967007978</v>
+      </c>
+      <c r="D71">
+        <v>1382.080703299202</v>
+      </c>
+      <c r="E71">
+        <v>678.9810000000002</v>
+      </c>
+      <c r="F71">
+        <v>2473.581</v>
+      </c>
+      <c r="G71">
+        <v>211.7</v>
+      </c>
+      <c r="H71">
+        <v>1790.3</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>530.7</v>
+      </c>
+      <c r="K71">
+        <v>503.3</v>
+      </c>
+      <c r="L71">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M71">
+        <v>502.5153161319238</v>
+      </c>
+      <c r="N71">
+        <v>-475.1153161319238</v>
+      </c>
+      <c r="O71">
+        <v>-99.774216387704</v>
+      </c>
+      <c r="P71">
+        <v>-375.3410997442198</v>
+      </c>
+      <c r="Q71">
+        <v>127.9589002557802</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1215305517790386</v>
+      </c>
+      <c r="T71">
+        <v>1.637948894367737</v>
+      </c>
+      <c r="U71">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V71">
+        <v>0.01145039726209942</v>
+      </c>
+      <c r="W71">
+        <v>0.2008267835708326</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.05452570124809253</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1781834813727111</v>
+      </c>
+      <c r="C72">
+        <v>-928.6497490607701</v>
+      </c>
+      <c r="D72">
+        <v>1369.08025093923</v>
+      </c>
+      <c r="E72">
+        <v>714.8299999999999</v>
+      </c>
+      <c r="F72">
+        <v>2509.43</v>
+      </c>
+      <c r="G72">
+        <v>211.7</v>
+      </c>
+      <c r="H72">
+        <v>1790.3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>530.7</v>
+      </c>
+      <c r="K72">
+        <v>503.3</v>
+      </c>
+      <c r="L72">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M72">
+        <v>509.7981468005024</v>
+      </c>
+      <c r="N72">
+        <v>-482.3981468005023</v>
+      </c>
+      <c r="O72">
+        <v>-101.3036108281055</v>
+      </c>
+      <c r="P72">
+        <v>-381.0945359723968</v>
+      </c>
+      <c r="Q72">
+        <v>122.2054640276032</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1252715701716733</v>
+      </c>
+      <c r="T72">
+        <v>1.692547190846662</v>
+      </c>
+      <c r="U72">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V72">
+        <v>0.01128682015835515</v>
+      </c>
+      <c r="W72">
+        <v>0.2008600147445844</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.05374676265883405</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1801220110300456</v>
+      </c>
+      <c r="C73">
+        <v>-977.2569047473507</v>
+      </c>
+      <c r="D73">
+        <v>1356.322095252649</v>
+      </c>
+      <c r="E73">
+        <v>750.6789999999996</v>
+      </c>
+      <c r="F73">
+        <v>2545.279</v>
+      </c>
+      <c r="G73">
+        <v>211.7</v>
+      </c>
+      <c r="H73">
+        <v>1790.3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>530.7</v>
+      </c>
+      <c r="K73">
+        <v>503.3</v>
+      </c>
+      <c r="L73">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M73">
+        <v>517.0809774690809</v>
+      </c>
+      <c r="N73">
+        <v>-489.6809774690809</v>
+      </c>
+      <c r="O73">
+        <v>-102.833005268507</v>
+      </c>
+      <c r="P73">
+        <v>-386.8479722005739</v>
+      </c>
+      <c r="Q73">
+        <v>116.4520277994261</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1292705898327654</v>
+      </c>
+      <c r="T73">
+        <v>1.750910887082753</v>
+      </c>
+      <c r="U73">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V73">
+        <v>0.01112785086035015</v>
+      </c>
+      <c r="W73">
+        <v>0.2008923098289347</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.05298976600166738</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1820605406873801</v>
+      </c>
+      <c r="C74">
+        <v>-1025.628474947608</v>
+      </c>
+      <c r="D74">
+        <v>1343.799525052392</v>
+      </c>
+      <c r="E74">
+        <v>786.5279999999998</v>
+      </c>
+      <c r="F74">
+        <v>2581.128</v>
+      </c>
+      <c r="G74">
+        <v>211.7</v>
+      </c>
+      <c r="H74">
+        <v>1790.3</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>530.7</v>
+      </c>
+      <c r="K74">
+        <v>503.3</v>
+      </c>
+      <c r="L74">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M74">
+        <v>524.3638081376596</v>
+      </c>
+      <c r="N74">
+        <v>-496.9638081376596</v>
+      </c>
+      <c r="O74">
+        <v>-104.3623997089085</v>
+      </c>
+      <c r="P74">
+        <v>-392.601408428751</v>
+      </c>
+      <c r="Q74">
+        <v>110.698591571249</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1335552537553642</v>
+      </c>
+      <c r="T74">
+        <v>1.81344341876428</v>
+      </c>
+      <c r="U74">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V74">
+        <v>0.01097329737617862</v>
+      </c>
+      <c r="W74">
+        <v>0.2009237078276086</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.05225379702942201</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1839990703447147</v>
+      </c>
+      <c r="C75">
+        <v>-1073.770925265414</v>
+      </c>
+      <c r="D75">
+        <v>1331.506074734586</v>
+      </c>
+      <c r="E75">
+        <v>822.377</v>
+      </c>
+      <c r="F75">
+        <v>2616.977</v>
+      </c>
+      <c r="G75">
+        <v>211.7</v>
+      </c>
+      <c r="H75">
+        <v>1790.3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>530.7</v>
+      </c>
+      <c r="K75">
+        <v>503.3</v>
+      </c>
+      <c r="L75">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M75">
+        <v>531.6466388062382</v>
+      </c>
+      <c r="N75">
+        <v>-504.2466388062382</v>
+      </c>
+      <c r="O75">
+        <v>-105.89179414931</v>
+      </c>
+      <c r="P75">
+        <v>-398.3548446569282</v>
+      </c>
+      <c r="Q75">
+        <v>104.9451553430718</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.138157300190748</v>
+      </c>
+      <c r="T75">
+        <v>1.880607989829623</v>
+      </c>
+      <c r="U75">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V75">
+        <v>0.01082297823403918</v>
+      </c>
+      <c r="W75">
+        <v>0.2009542456071407</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.05153799159066275</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1859376000020492</v>
+      </c>
+      <c r="C76">
+        <v>-1121.690486852933</v>
+      </c>
+      <c r="D76">
+        <v>1319.435513147066</v>
+      </c>
+      <c r="E76">
+        <v>858.2259999999997</v>
+      </c>
+      <c r="F76">
+        <v>2652.826</v>
+      </c>
+      <c r="G76">
+        <v>211.7</v>
+      </c>
+      <c r="H76">
+        <v>1790.3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>530.7</v>
+      </c>
+      <c r="K76">
+        <v>503.3</v>
+      </c>
+      <c r="L76">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M76">
+        <v>538.9294694748168</v>
+      </c>
+      <c r="N76">
+        <v>-511.5294694748167</v>
+      </c>
+      <c r="O76">
+        <v>-107.4211885897115</v>
+      </c>
+      <c r="P76">
+        <v>-404.1082808851052</v>
+      </c>
+      <c r="Q76">
+        <v>99.19171911489479</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1431133501980845</v>
+      </c>
+      <c r="T76">
+        <v>1.952939066361532</v>
+      </c>
+      <c r="U76">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V76">
+        <v>0.01067672177141703</v>
+      </c>
+      <c r="W76">
+        <v>0.2009839580412801</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.050841532244843</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1878761296593838</v>
+      </c>
+      <c r="C77">
+        <v>-1169.393166942071</v>
+      </c>
+      <c r="D77">
+        <v>1307.581833057929</v>
+      </c>
+      <c r="E77">
+        <v>894.0749999999998</v>
+      </c>
+      <c r="F77">
+        <v>2688.675</v>
+      </c>
+      <c r="G77">
+        <v>211.7</v>
+      </c>
+      <c r="H77">
+        <v>1790.3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>530.7</v>
+      </c>
+      <c r="K77">
+        <v>503.3</v>
+      </c>
+      <c r="L77">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M77">
+        <v>546.2123001433954</v>
+      </c>
+      <c r="N77">
+        <v>-518.8123001433953</v>
+      </c>
+      <c r="O77">
+        <v>-108.950583030113</v>
+      </c>
+      <c r="P77">
+        <v>-409.8617171132823</v>
+      </c>
+      <c r="Q77">
+        <v>93.43828288671773</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1484658842060079</v>
+      </c>
+      <c r="T77">
+        <v>2.031056629015993</v>
+      </c>
+      <c r="U77">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V77">
+        <v>0.01053436548113147</v>
+      </c>
+      <c r="W77">
+        <v>0.2010128781438424</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.05016364514824523</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1898146593167183</v>
+      </c>
+      <c r="C78">
+        <v>-1216.884758813307</v>
+      </c>
+      <c r="D78">
+        <v>1295.939241186693</v>
+      </c>
+      <c r="E78">
+        <v>929.924</v>
+      </c>
+      <c r="F78">
+        <v>2724.524</v>
+      </c>
+      <c r="G78">
+        <v>211.7</v>
+      </c>
+      <c r="H78">
+        <v>1790.3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>530.7</v>
+      </c>
+      <c r="K78">
+        <v>503.3</v>
+      </c>
+      <c r="L78">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M78">
+        <v>553.495130811974</v>
+      </c>
+      <c r="N78">
+        <v>-526.0951308119741</v>
+      </c>
+      <c r="O78">
+        <v>-110.4799774705146</v>
+      </c>
+      <c r="P78">
+        <v>-415.6151533414595</v>
+      </c>
+      <c r="Q78">
+        <v>87.68484665854049</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1542644627145916</v>
+      </c>
+      <c r="T78">
+        <v>2.115683988558327</v>
+      </c>
+      <c r="U78">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V78">
+        <v>0.01039575540901132</v>
+      </c>
+      <c r="W78">
+        <v>0.2010410371910741</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.04950359718576813</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1917531889740528</v>
+      </c>
+      <c r="C79">
+        <v>-1264.170851236657</v>
+      </c>
+      <c r="D79">
+        <v>1284.502148763343</v>
+      </c>
+      <c r="E79">
+        <v>965.7729999999997</v>
+      </c>
+      <c r="F79">
+        <v>2760.373</v>
+      </c>
+      <c r="G79">
+        <v>211.7</v>
+      </c>
+      <c r="H79">
+        <v>1790.3</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>530.7</v>
+      </c>
+      <c r="K79">
+        <v>503.3</v>
+      </c>
+      <c r="L79">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M79">
+        <v>560.7779614805526</v>
+      </c>
+      <c r="N79">
+        <v>-533.3779614805526</v>
+      </c>
+      <c r="O79">
+        <v>-112.009371910916</v>
+      </c>
+      <c r="P79">
+        <v>-421.3685895696365</v>
+      </c>
+      <c r="Q79">
+        <v>81.93141043036348</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1605672654413129</v>
+      </c>
+      <c r="T79">
+        <v>2.207670248930428</v>
+      </c>
+      <c r="U79">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V79">
+        <v>0.01026074559850468</v>
+      </c>
+      <c r="W79">
+        <v>0.2010684648344817</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.04886069332621268</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1936917186313874</v>
+      </c>
+      <c r="C80">
+        <v>-1311.256837417088</v>
+      </c>
+      <c r="D80">
+        <v>1273.265162582911</v>
+      </c>
+      <c r="E80">
+        <v>1001.622</v>
+      </c>
+      <c r="F80">
+        <v>2796.222</v>
+      </c>
+      <c r="G80">
+        <v>211.7</v>
+      </c>
+      <c r="H80">
+        <v>1790.3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>530.7</v>
+      </c>
+      <c r="K80">
+        <v>503.3</v>
+      </c>
+      <c r="L80">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M80">
+        <v>568.0607921491312</v>
+      </c>
+      <c r="N80">
+        <v>-540.6607921491311</v>
+      </c>
+      <c r="O80">
+        <v>-113.5387663513175</v>
+      </c>
+      <c r="P80">
+        <v>-427.1220257978136</v>
+      </c>
+      <c r="Q80">
+        <v>76.17797420218642</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1674430502340999</v>
+      </c>
+      <c r="T80">
+        <v>2.308018896609084</v>
+      </c>
+      <c r="U80">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V80">
+        <v>0.01012919757801103</v>
+      </c>
+      <c r="W80">
+        <v>0.2010951892049813</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.04823427418100501</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1956302482887219</v>
+      </c>
+      <c r="C81">
+        <v>-1358.147923474472</v>
+      </c>
+      <c r="D81">
+        <v>1262.223076525528</v>
+      </c>
+      <c r="E81">
+        <v>1037.471</v>
+      </c>
+      <c r="F81">
+        <v>2832.071</v>
+      </c>
+      <c r="G81">
+        <v>211.7</v>
+      </c>
+      <c r="H81">
+        <v>1790.3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>530.7</v>
+      </c>
+      <c r="K81">
+        <v>503.3</v>
+      </c>
+      <c r="L81">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M81">
+        <v>575.3436228177098</v>
+      </c>
+      <c r="N81">
+        <v>-547.9436228177099</v>
+      </c>
+      <c r="O81">
+        <v>-115.0681607917191</v>
+      </c>
+      <c r="P81">
+        <v>-432.8754620259908</v>
+      </c>
+      <c r="Q81">
+        <v>70.42453797400918</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1749736716738189</v>
+      </c>
+      <c r="T81">
+        <v>2.417924558352373</v>
+      </c>
+      <c r="U81">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V81">
+        <v>0.01000097988715013</v>
+      </c>
+      <c r="W81">
+        <v>0.2011212370091392</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.04762371374833385</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1975687779460565</v>
+      </c>
+      <c r="C82">
+        <v>-1404.84913648609</v>
+      </c>
+      <c r="D82">
+        <v>1251.37086351391</v>
+      </c>
+      <c r="E82">
+        <v>1073.32</v>
+      </c>
+      <c r="F82">
+        <v>2867.92</v>
+      </c>
+      <c r="G82">
+        <v>211.7</v>
+      </c>
+      <c r="H82">
+        <v>1790.3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>530.7</v>
+      </c>
+      <c r="K82">
+        <v>503.3</v>
+      </c>
+      <c r="L82">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M82">
+        <v>582.6264534862885</v>
+      </c>
+      <c r="N82">
+        <v>-555.2264534862884</v>
+      </c>
+      <c r="O82">
+        <v>-116.5975552321206</v>
+      </c>
+      <c r="P82">
+        <v>-438.6288982541678</v>
+      </c>
+      <c r="Q82">
+        <v>64.67110174583217</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1832573552575099</v>
+      </c>
+      <c r="T82">
+        <v>2.538820786269993</v>
+      </c>
+      <c r="U82">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V82">
+        <v>0.009875967638560752</v>
+      </c>
+      <c r="W82">
+        <v>0.2011466336181931</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.04702841732647989</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.199507307603391</v>
+      </c>
+      <c r="C83">
+        <v>-1451.365332117797</v>
+      </c>
+      <c r="D83">
+        <v>1240.703667882203</v>
+      </c>
+      <c r="E83">
+        <v>1109.169</v>
+      </c>
+      <c r="F83">
+        <v>2903.769</v>
+      </c>
+      <c r="G83">
+        <v>211.7</v>
+      </c>
+      <c r="H83">
+        <v>1790.3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>530.7</v>
+      </c>
+      <c r="K83">
+        <v>503.3</v>
+      </c>
+      <c r="L83">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M83">
+        <v>589.909284154867</v>
+      </c>
+      <c r="N83">
+        <v>-562.5092841548669</v>
+      </c>
+      <c r="O83">
+        <v>-118.126949672522</v>
+      </c>
+      <c r="P83">
+        <v>-444.3823344823448</v>
+      </c>
+      <c r="Q83">
+        <v>58.91766551765517</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.192413005534221</v>
+      </c>
+      <c r="T83">
+        <v>2.672442932915782</v>
+      </c>
+      <c r="U83">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V83">
+        <v>0.009754042112158771</v>
+      </c>
+      <c r="W83">
+        <v>0.2011714031504803</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.04644781958170852</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2014458372607256</v>
+      </c>
+      <c r="C84">
+        <v>-1497.701201868172</v>
+      </c>
+      <c r="D84">
+        <v>1230.216798131828</v>
+      </c>
+      <c r="E84">
+        <v>1145.018</v>
+      </c>
+      <c r="F84">
+        <v>2939.618</v>
+      </c>
+      <c r="G84">
+        <v>211.7</v>
+      </c>
+      <c r="H84">
+        <v>1790.3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>530.7</v>
+      </c>
+      <c r="K84">
+        <v>503.3</v>
+      </c>
+      <c r="L84">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M84">
+        <v>597.1921148234456</v>
+      </c>
+      <c r="N84">
+        <v>-569.7921148234457</v>
+      </c>
+      <c r="O84">
+        <v>-119.6563441129236</v>
+      </c>
+      <c r="P84">
+        <v>-450.1357707105221</v>
+      </c>
+      <c r="Q84">
+        <v>53.16422928947793</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2025859502861221</v>
+      </c>
+      <c r="T84">
+        <v>2.820911984744436</v>
+      </c>
+      <c r="U84">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V84">
+        <v>0.009635090379083663</v>
+      </c>
+      <c r="W84">
+        <v>0.2011955685478337</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.04588138275754117</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2033843669180601</v>
+      </c>
+      <c r="C85">
+        <v>-1543.861279948369</v>
+      </c>
+      <c r="D85">
+        <v>1219.905720051631</v>
+      </c>
+      <c r="E85">
+        <v>1180.867</v>
+      </c>
+      <c r="F85">
+        <v>2975.467</v>
+      </c>
+      <c r="G85">
+        <v>211.7</v>
+      </c>
+      <c r="H85">
+        <v>1790.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>530.7</v>
+      </c>
+      <c r="K85">
+        <v>503.3</v>
+      </c>
+      <c r="L85">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M85">
+        <v>604.4749454920243</v>
+      </c>
+      <c r="N85">
+        <v>-577.0749454920242</v>
+      </c>
+      <c r="O85">
+        <v>-121.1857385533251</v>
+      </c>
+      <c r="P85">
+        <v>-455.8892069386991</v>
+      </c>
+      <c r="Q85">
+        <v>47.41079306130092</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2139557120676587</v>
+      </c>
+      <c r="T85">
+        <v>2.98684798384705</v>
+      </c>
+      <c r="U85">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V85">
+        <v>0.009519004952829641</v>
+      </c>
+      <c r="W85">
+        <v>0.2012191516464556</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.04532859501347453</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2053228965753947</v>
+      </c>
+      <c r="C86">
+        <v>-1589.849949818859</v>
+      </c>
+      <c r="D86">
+        <v>1209.766050181141</v>
+      </c>
+      <c r="E86">
+        <v>1216.716</v>
+      </c>
+      <c r="F86">
+        <v>3011.316</v>
+      </c>
+      <c r="G86">
+        <v>211.7</v>
+      </c>
+      <c r="H86">
+        <v>1790.3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>530.7</v>
+      </c>
+      <c r="K86">
+        <v>503.3</v>
+      </c>
+      <c r="L86">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M86">
+        <v>611.7577761606028</v>
+      </c>
+      <c r="N86">
+        <v>-584.3577761606027</v>
+      </c>
+      <c r="O86">
+        <v>-122.7151329937266</v>
+      </c>
+      <c r="P86">
+        <v>-461.6426431668762</v>
+      </c>
+      <c r="Q86">
+        <v>41.65735683312386</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2267466940718873</v>
+      </c>
+      <c r="T86">
+        <v>3.17352598283749</v>
+      </c>
+      <c r="U86">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V86">
+        <v>0.009405683465295958</v>
+      </c>
+      <c r="W86">
+        <v>0.2012421732427294</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.04478896888236183</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2072614262327292</v>
+      </c>
+      <c r="C87">
+        <v>-1635.671450402874</v>
+      </c>
+      <c r="D87">
+        <v>1199.793549597125</v>
+      </c>
+      <c r="E87">
+        <v>1252.565</v>
+      </c>
+      <c r="F87">
+        <v>3047.165</v>
+      </c>
+      <c r="G87">
+        <v>211.7</v>
+      </c>
+      <c r="H87">
+        <v>1790.3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>530.7</v>
+      </c>
+      <c r="K87">
+        <v>503.3</v>
+      </c>
+      <c r="L87">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M87">
+        <v>619.0406068291813</v>
+      </c>
+      <c r="N87">
+        <v>-591.6406068291813</v>
+      </c>
+      <c r="O87">
+        <v>-124.2445274341281</v>
+      </c>
+      <c r="P87">
+        <v>-467.3960793950532</v>
+      </c>
+      <c r="Q87">
+        <v>35.90392060494679</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2412431403433465</v>
+      </c>
+      <c r="T87">
+        <v>3.385094381693322</v>
+      </c>
+      <c r="U87">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V87">
+        <v>0.00929502836570424</v>
+      </c>
+      <c r="W87">
+        <v>0.201264653154385</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.04426203983668697</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2091999558900637</v>
+      </c>
+      <c r="C88">
+        <v>-1681.329881995038</v>
+      </c>
+      <c r="D88">
+        <v>1189.984118004962</v>
+      </c>
+      <c r="E88">
+        <v>1288.414</v>
+      </c>
+      <c r="F88">
+        <v>3083.014</v>
+      </c>
+      <c r="G88">
+        <v>211.7</v>
+      </c>
+      <c r="H88">
+        <v>1790.3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>530.7</v>
+      </c>
+      <c r="K88">
+        <v>503.3</v>
+      </c>
+      <c r="L88">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M88">
+        <v>626.32343749776</v>
+      </c>
+      <c r="N88">
+        <v>-598.92343749776</v>
+      </c>
+      <c r="O88">
+        <v>-125.7739218745296</v>
+      </c>
+      <c r="P88">
+        <v>-473.1495156232304</v>
+      </c>
+      <c r="Q88">
+        <v>30.15048437676961</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2578105075107283</v>
+      </c>
+      <c r="T88">
+        <v>3.626886837528559</v>
+      </c>
+      <c r="U88">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V88">
+        <v>0.009186946640521634</v>
+      </c>
+      <c r="W88">
+        <v>0.2012866102773974</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.04374736495486486</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2111384855473983</v>
+      </c>
+      <c r="C89">
+        <v>-1726.829211882497</v>
+      </c>
+      <c r="D89">
+        <v>1180.333788117503</v>
+      </c>
+      <c r="E89">
+        <v>1324.263</v>
+      </c>
+      <c r="F89">
+        <v>3118.863</v>
+      </c>
+      <c r="G89">
+        <v>211.7</v>
+      </c>
+      <c r="H89">
+        <v>1790.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>530.7</v>
+      </c>
+      <c r="K89">
+        <v>503.3</v>
+      </c>
+      <c r="L89">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M89">
+        <v>633.6062681663386</v>
+      </c>
+      <c r="N89">
+        <v>-606.2062681663385</v>
+      </c>
+      <c r="O89">
+        <v>-127.3033163149311</v>
+      </c>
+      <c r="P89">
+        <v>-478.9029518514075</v>
+      </c>
+      <c r="Q89">
+        <v>24.39704814859255</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.276926700396169</v>
+      </c>
+      <c r="T89">
+        <v>3.905878132723064</v>
+      </c>
+      <c r="U89">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V89">
+        <v>0.009081349552699545</v>
+      </c>
+      <c r="W89">
+        <v>0.2013080626389613</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.04324452167952175</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2130770152047328</v>
+      </c>
+      <c r="C90">
+        <v>-1772.173279694745</v>
+      </c>
+      <c r="D90">
+        <v>1170.838720305254</v>
+      </c>
+      <c r="E90">
+        <v>1360.112</v>
+      </c>
+      <c r="F90">
+        <v>3154.712</v>
+      </c>
+      <c r="G90">
+        <v>211.7</v>
+      </c>
+      <c r="H90">
+        <v>1790.3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>530.7</v>
+      </c>
+      <c r="K90">
+        <v>503.3</v>
+      </c>
+      <c r="L90">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M90">
+        <v>640.8890988349173</v>
+      </c>
+      <c r="N90">
+        <v>-613.4890988349173</v>
+      </c>
+      <c r="O90">
+        <v>-128.8327107553326</v>
+      </c>
+      <c r="P90">
+        <v>-484.6563880795846</v>
+      </c>
+      <c r="Q90">
+        <v>18.64361192041537</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.2992289254291831</v>
+      </c>
+      <c r="T90">
+        <v>4.231367977116653</v>
+      </c>
+      <c r="U90">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V90">
+        <v>0.008978152398691595</v>
+      </c>
+      <c r="W90">
+        <v>0.2013290274468532</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.04275310666043608</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2150155448620674</v>
+      </c>
+      <c r="C91">
+        <v>-1817.36580249729</v>
+      </c>
+      <c r="D91">
+        <v>1161.49519750271</v>
+      </c>
+      <c r="E91">
+        <v>1395.961</v>
+      </c>
+      <c r="F91">
+        <v>3190.561</v>
+      </c>
+      <c r="G91">
+        <v>211.7</v>
+      </c>
+      <c r="H91">
+        <v>1790.3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>530.7</v>
+      </c>
+      <c r="K91">
+        <v>503.3</v>
+      </c>
+      <c r="L91">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M91">
+        <v>648.1719295034959</v>
+      </c>
+      <c r="N91">
+        <v>-620.7719295034958</v>
+      </c>
+      <c r="O91">
+        <v>-130.3621051957341</v>
+      </c>
+      <c r="P91">
+        <v>-490.4098243077617</v>
+      </c>
+      <c r="Q91">
+        <v>12.8901756922383</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3255861004681997</v>
+      </c>
+      <c r="T91">
+        <v>4.616037793218167</v>
+      </c>
+      <c r="U91">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V91">
+        <v>0.008877274281852362</v>
+      </c>
+      <c r="W91">
+        <v>0.2013495211354668</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.04227273467548753</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2169540745194019</v>
+      </c>
+      <c r="C92">
+        <v>-1862.410379643354</v>
+      </c>
+      <c r="D92">
+        <v>1152.299620356646</v>
+      </c>
+      <c r="E92">
+        <v>1431.81</v>
+      </c>
+      <c r="F92">
+        <v>3226.41</v>
+      </c>
+      <c r="G92">
+        <v>211.7</v>
+      </c>
+      <c r="H92">
+        <v>1790.3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>530.7</v>
+      </c>
+      <c r="K92">
+        <v>503.3</v>
+      </c>
+      <c r="L92">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M92">
+        <v>655.4547601720745</v>
+      </c>
+      <c r="N92">
+        <v>-628.0547601720746</v>
+      </c>
+      <c r="O92">
+        <v>-131.8914996361356</v>
+      </c>
+      <c r="P92">
+        <v>-496.1632605359389</v>
+      </c>
+      <c r="Q92">
+        <v>7.136739464061122</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3572147105150198</v>
+      </c>
+      <c r="T92">
+        <v>5.077641572539985</v>
+      </c>
+      <c r="U92">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V92">
+        <v>0.008778637900942892</v>
+      </c>
+      <c r="W92">
+        <v>0.2013695594087777</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.04180303762353754</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2188926041767364</v>
+      </c>
+      <c r="C93">
+        <v>-1907.310497396928</v>
+      </c>
+      <c r="D93">
+        <v>1143.248502603072</v>
+      </c>
+      <c r="E93">
+        <v>1467.659</v>
+      </c>
+      <c r="F93">
+        <v>3262.259</v>
+      </c>
+      <c r="G93">
+        <v>211.7</v>
+      </c>
+      <c r="H93">
+        <v>1790.3</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>530.7</v>
+      </c>
+      <c r="K93">
+        <v>503.3</v>
+      </c>
+      <c r="L93">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M93">
+        <v>662.7375908406531</v>
+      </c>
+      <c r="N93">
+        <v>-635.3375908406531</v>
+      </c>
+      <c r="O93">
+        <v>-133.4208940765371</v>
+      </c>
+      <c r="P93">
+        <v>-501.916696764116</v>
+      </c>
+      <c r="Q93">
+        <v>1.383303235884057</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.3958719005722442</v>
+      </c>
+      <c r="T93">
+        <v>5.641823969488872</v>
+      </c>
+      <c r="U93">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V93">
+        <v>0.008682169352580883</v>
+      </c>
+      <c r="W93">
+        <v>0.2013891572804775</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.04134366358371844</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.220831133834071</v>
+      </c>
+      <c r="C94">
+        <v>-1952.069533339641</v>
+      </c>
+      <c r="D94">
+        <v>1134.338466660359</v>
+      </c>
+      <c r="E94">
+        <v>1503.508</v>
+      </c>
+      <c r="F94">
+        <v>3298.108</v>
+      </c>
+      <c r="G94">
+        <v>211.7</v>
+      </c>
+      <c r="H94">
+        <v>1790.3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>530.7</v>
+      </c>
+      <c r="K94">
+        <v>503.3</v>
+      </c>
+      <c r="L94">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M94">
+        <v>670.0204215092317</v>
+      </c>
+      <c r="N94">
+        <v>-642.6204215092316</v>
+      </c>
+      <c r="O94">
+        <v>-134.9502885169386</v>
+      </c>
+      <c r="P94">
+        <v>-507.670132992293</v>
+      </c>
+      <c r="Q94">
+        <v>-4.370132992293009</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4441933881437749</v>
+      </c>
+      <c r="T94">
+        <v>6.347051965674983</v>
+      </c>
+      <c r="U94">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V94">
+        <v>0.008587797946574568</v>
+      </c>
+      <c r="W94">
+        <v>0.2014083291114881</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.04089427593606942</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2227696634914055</v>
+      </c>
+      <c r="C95">
+        <v>-1996.690760573145</v>
+      </c>
+      <c r="D95">
+        <v>1125.566239426855</v>
+      </c>
+      <c r="E95">
+        <v>1539.357</v>
+      </c>
+      <c r="F95">
+        <v>3333.957</v>
+      </c>
+      <c r="G95">
+        <v>211.7</v>
+      </c>
+      <c r="H95">
+        <v>1790.3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>530.7</v>
+      </c>
+      <c r="K95">
+        <v>503.3</v>
+      </c>
+      <c r="L95">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M95">
+        <v>677.3032521778104</v>
+      </c>
+      <c r="N95">
+        <v>-649.9032521778104</v>
+      </c>
+      <c r="O95">
+        <v>-136.4796829573402</v>
+      </c>
+      <c r="P95">
+        <v>-513.4235692204702</v>
+      </c>
+      <c r="Q95">
+        <v>-10.12356922047019</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5063210150214571</v>
+      </c>
+      <c r="T95">
+        <v>7.253773675057124</v>
+      </c>
+      <c r="U95">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V95">
+        <v>0.008495456033170541</v>
+      </c>
+      <c r="W95">
+        <v>0.2014270886450576</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.04045455253890728</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2247081931487401</v>
+      </c>
+      <c r="C96">
+        <v>-2041.177351728014</v>
+      </c>
+      <c r="D96">
+        <v>1116.928648271986</v>
+      </c>
+      <c r="E96">
+        <v>1575.206</v>
+      </c>
+      <c r="F96">
+        <v>3369.806</v>
+      </c>
+      <c r="G96">
+        <v>211.7</v>
+      </c>
+      <c r="H96">
+        <v>1790.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>530.7</v>
+      </c>
+      <c r="K96">
+        <v>503.3</v>
+      </c>
+      <c r="L96">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M96">
+        <v>684.586082846389</v>
+      </c>
+      <c r="N96">
+        <v>-657.1860828463889</v>
+      </c>
+      <c r="O96">
+        <v>-138.0090773977417</v>
+      </c>
+      <c r="P96">
+        <v>-519.1770054486473</v>
+      </c>
+      <c r="Q96">
+        <v>-15.87700544864725</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.5891578508583667</v>
+      </c>
+      <c r="T96">
+        <v>8.462735954233313</v>
+      </c>
+      <c r="U96">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V96">
+        <v>0.0084050788413283</v>
+      </c>
+      <c r="W96">
+        <v>0.201445449039615</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.0400241849587063</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2266467228060747</v>
+      </c>
+      <c r="C97">
+        <v>-2085.532382789454</v>
+      </c>
+      <c r="D97">
+        <v>1108.422617210545</v>
+      </c>
+      <c r="E97">
+        <v>1611.055</v>
+      </c>
+      <c r="F97">
+        <v>3405.655</v>
+      </c>
+      <c r="G97">
+        <v>211.7</v>
+      </c>
+      <c r="H97">
+        <v>1790.3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>530.7</v>
+      </c>
+      <c r="K97">
+        <v>503.3</v>
+      </c>
+      <c r="L97">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M97">
+        <v>691.8689135149675</v>
+      </c>
+      <c r="N97">
+        <v>-664.4689135149674</v>
+      </c>
+      <c r="O97">
+        <v>-139.5384718381432</v>
+      </c>
+      <c r="P97">
+        <v>-524.9304416768243</v>
+      </c>
+      <c r="Q97">
+        <v>-21.63044167682432</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7051294210300405</v>
+      </c>
+      <c r="T97">
+        <v>10.15528314507998</v>
+      </c>
+      <c r="U97">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V97">
+        <v>0.008316604327209057</v>
+      </c>
+      <c r="W97">
+        <v>0.2014634228995502</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.0396028777486146</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2285852524634092</v>
+      </c>
+      <c r="C98">
+        <v>-2129.758836749537</v>
+      </c>
+      <c r="D98">
+        <v>1100.045163250463</v>
+      </c>
+      <c r="E98">
+        <v>1646.904</v>
+      </c>
+      <c r="F98">
+        <v>3441.503999999999</v>
+      </c>
+      <c r="G98">
+        <v>211.7</v>
+      </c>
+      <c r="H98">
+        <v>1790.3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>530.7</v>
+      </c>
+      <c r="K98">
+        <v>503.3</v>
+      </c>
+      <c r="L98">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M98">
+        <v>699.151744183546</v>
+      </c>
+      <c r="N98">
+        <v>-671.751744183546</v>
+      </c>
+      <c r="O98">
+        <v>-141.0678662785446</v>
+      </c>
+      <c r="P98">
+        <v>-530.6838779050013</v>
+      </c>
+      <c r="Q98">
+        <v>-27.38387790500127</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.8790867762875487</v>
+      </c>
+      <c r="T98">
+        <v>12.69410393134995</v>
+      </c>
+      <c r="U98">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V98">
+        <v>0.008229973032133962</v>
+      </c>
+      <c r="W98">
+        <v>0.20148102230407</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.03919034777206654</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2305237821207438</v>
+      </c>
+      <c r="C99">
+        <v>-2173.859607095041</v>
+      </c>
+      <c r="D99">
+        <v>1091.793392904959</v>
+      </c>
+      <c r="E99">
+        <v>1682.753</v>
+      </c>
+      <c r="F99">
+        <v>3477.353</v>
+      </c>
+      <c r="G99">
+        <v>211.7</v>
+      </c>
+      <c r="H99">
+        <v>1790.3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>530.7</v>
+      </c>
+      <c r="K99">
+        <v>503.3</v>
+      </c>
+      <c r="L99">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M99">
+        <v>706.4345748521247</v>
+      </c>
+      <c r="N99">
+        <v>-679.0345748521247</v>
+      </c>
+      <c r="O99">
+        <v>-142.5972607189462</v>
+      </c>
+      <c r="P99">
+        <v>-536.4373141331785</v>
+      </c>
+      <c r="Q99">
+        <v>-33.13731413317845</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.169015701716732</v>
+      </c>
+      <c r="T99">
+        <v>16.9254719084666</v>
+      </c>
+      <c r="U99">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V99">
+        <v>0.008145127949328458</v>
+      </c>
+      <c r="W99">
+        <v>0.2014982588342699</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.03878632356823064</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2324623117780782</v>
+      </c>
+      <c r="C100">
+        <v>-2217.837501139491</v>
+      </c>
+      <c r="D100">
+        <v>1083.664498860509</v>
+      </c>
+      <c r="E100">
+        <v>1718.602</v>
+      </c>
+      <c r="F100">
+        <v>3513.202</v>
+      </c>
+      <c r="G100">
+        <v>211.7</v>
+      </c>
+      <c r="H100">
+        <v>1790.3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>530.7</v>
+      </c>
+      <c r="K100">
+        <v>503.3</v>
+      </c>
+      <c r="L100">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M100">
+        <v>713.7174055207033</v>
+      </c>
+      <c r="N100">
+        <v>-686.3174055207032</v>
+      </c>
+      <c r="O100">
+        <v>-144.1266551593477</v>
+      </c>
+      <c r="P100">
+        <v>-542.1907503613555</v>
+      </c>
+      <c r="Q100">
+        <v>-38.89075036135551</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.748873552575097</v>
+      </c>
+      <c r="T100">
+        <v>25.38820786269989</v>
+      </c>
+      <c r="U100">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V100">
+        <v>0.008062014398825106</v>
+      </c>
+      <c r="W100">
+        <v>0.2015151435985472</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.0383905447563101</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2344008414354128</v>
+      </c>
+      <c r="C101">
+        <v>-2261.695243207442</v>
+      </c>
+      <c r="D101">
+        <v>1075.655756792557</v>
+      </c>
+      <c r="E101">
+        <v>1754.451</v>
+      </c>
+      <c r="F101">
+        <v>3549.050999999999</v>
+      </c>
+      <c r="G101">
+        <v>211.7</v>
+      </c>
+      <c r="H101">
+        <v>1790.3</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>530.7</v>
+      </c>
+      <c r="K101">
+        <v>503.3</v>
+      </c>
+      <c r="L101">
+        <v>27.40000000000003</v>
+      </c>
+      <c r="M101">
+        <v>721.0002361892818</v>
+      </c>
+      <c r="N101">
+        <v>-693.6002361892818</v>
+      </c>
+      <c r="O101">
+        <v>-145.6560495997492</v>
+      </c>
+      <c r="P101">
+        <v>-547.9441865895326</v>
+      </c>
+      <c r="Q101">
+        <v>-44.64418658953258</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.488447105150195</v>
+      </c>
+      <c r="T101">
+        <v>50.7764157253998</v>
+      </c>
+      <c r="U101">
+        <v>0.2031529657334544</v>
+      </c>
+      <c r="V101">
+        <v>0.007980579909948084</v>
+      </c>
+      <c r="W101">
+        <v>0.2015316872564756</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.03800276147594339</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
